--- a/Archivos_Lectura/Executed/Externado/listado de areas 2.xlsx
+++ b/Archivos_Lectura/Executed/Externado/listado de areas 2.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Axede.Xynthesis.Device.Oxe\SwDeviceOxe\Archivos_Lectura\Executed\Externado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C598090-852D-4252-909E-FE8AD54207DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6201F9E7-537E-49FF-82C5-B24BA4074C4A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$799</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja2!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Hoja3!$D$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="815">
   <si>
     <t>C.Costos</t>
   </si>
@@ -2469,6 +2473,12 @@
   </si>
   <si>
     <t>DE LA CALIDAD</t>
+  </si>
+  <si>
+    <t>Id_area</t>
+  </si>
+  <si>
+    <t>Nom_area</t>
   </si>
 </sst>
 </file>
@@ -3023,7 +3033,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3031,9 +3041,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3044,6 +3051,10 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3367,8 +3378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A498" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A784" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3398,13 +3409,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -4763,13 +4774,13 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
@@ -4992,13 +5003,13 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="9" t="s">
         <v>731</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
@@ -5061,13 +5072,13 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="9"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
@@ -5270,13 +5281,13 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="9"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -5359,13 +5370,13 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -5428,13 +5439,13 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="E107" s="9"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -5557,13 +5568,13 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="9"/>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -5686,13 +5697,13 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="9"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -5755,13 +5766,13 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
-      <c r="E125" s="9"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -5804,13 +5815,13 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="9"/>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -5873,13 +5884,13 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="E132" s="9"/>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -5962,13 +5973,13 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="9"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -6071,13 +6082,13 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="9"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -6180,13 +6191,13 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -6269,13 +6280,13 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="9"/>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="8"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -6318,13 +6329,13 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="9"/>
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
@@ -6527,13 +6538,13 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
+      <c r="A168" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B168" s="8"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="9"/>
+      <c r="B168" s="7"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
@@ -6594,13 +6605,13 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
+      <c r="A172" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B172" s="8"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="E172" s="9"/>
+      <c r="B172" s="7"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
@@ -6783,13 +6794,13 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
+      <c r="A182" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="9"/>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -6832,13 +6843,13 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
+      <c r="A185" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="E185" s="9"/>
+      <c r="B185" s="7"/>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
@@ -6941,13 +6952,13 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
+      <c r="A191" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="9"/>
+      <c r="B191" s="7"/>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="8"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
@@ -7050,13 +7061,13 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
+      <c r="A197" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B197" s="8"/>
-      <c r="C197" s="8"/>
-      <c r="D197" s="8"/>
-      <c r="E197" s="9"/>
+      <c r="B197" s="7"/>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
@@ -7159,13 +7170,13 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
+      <c r="A203" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="8"/>
-      <c r="D203" s="8"/>
-      <c r="E203" s="9"/>
+      <c r="B203" s="7"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
@@ -7228,13 +7239,13 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="7" t="s">
+      <c r="A207" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="9"/>
+      <c r="B207" s="7"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="8"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
@@ -7417,13 +7428,13 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="7" t="s">
+      <c r="A217" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="B217" s="8"/>
-      <c r="C217" s="8"/>
-      <c r="D217" s="8"/>
-      <c r="E217" s="9"/>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="8"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
@@ -8502,13 +8513,13 @@
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
+      <c r="A272" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="B272" s="8"/>
-      <c r="C272" s="8"/>
-      <c r="D272" s="8"/>
-      <c r="E272" s="9"/>
+      <c r="B272" s="7"/>
+      <c r="C272" s="7"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="8"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
@@ -8791,13 +8802,13 @@
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
+      <c r="A287" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B287" s="8"/>
-      <c r="C287" s="8"/>
-      <c r="D287" s="8"/>
-      <c r="E287" s="9"/>
+      <c r="B287" s="7"/>
+      <c r="C287" s="7"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="8"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
@@ -9080,13 +9091,13 @@
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A302" s="7" t="s">
+      <c r="A302" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B302" s="8"/>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="9"/>
+      <c r="B302" s="7"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="8"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
@@ -9447,13 +9458,13 @@
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B321" s="8"/>
-      <c r="C321" s="8"/>
-      <c r="D321" s="8"/>
-      <c r="E321" s="9"/>
+      <c r="B321" s="7"/>
+      <c r="C321" s="7"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="8"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
@@ -9856,13 +9867,13 @@
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="7" t="s">
+      <c r="A342" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B342" s="8"/>
-      <c r="C342" s="8"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="9"/>
+      <c r="B342" s="7"/>
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="8"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
@@ -9925,13 +9936,13 @@
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
+      <c r="A346" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B346" s="8"/>
-      <c r="C346" s="8"/>
-      <c r="D346" s="8"/>
-      <c r="E346" s="9"/>
+      <c r="B346" s="7"/>
+      <c r="C346" s="7"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="8"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
@@ -10466,13 +10477,13 @@
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="7" t="s">
+      <c r="A374" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B374" s="8"/>
-      <c r="C374" s="8"/>
-      <c r="D374" s="8"/>
-      <c r="E374" s="9"/>
+      <c r="B374" s="7"/>
+      <c r="C374" s="7"/>
+      <c r="D374" s="7"/>
+      <c r="E374" s="8"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
@@ -10715,13 +10726,13 @@
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="7" t="s">
+      <c r="A387" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="B387" s="8"/>
-      <c r="C387" s="8"/>
-      <c r="D387" s="8"/>
-      <c r="E387" s="9"/>
+      <c r="B387" s="7"/>
+      <c r="C387" s="7"/>
+      <c r="D387" s="7"/>
+      <c r="E387" s="8"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
@@ -10902,13 +10913,13 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="7" t="s">
+      <c r="A397" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B397" s="8"/>
-      <c r="C397" s="8"/>
-      <c r="D397" s="8"/>
-      <c r="E397" s="9"/>
+      <c r="B397" s="7"/>
+      <c r="C397" s="7"/>
+      <c r="D397" s="7"/>
+      <c r="E397" s="8"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
@@ -10951,13 +10962,13 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="7" t="s">
+      <c r="A400" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B400" s="8"/>
-      <c r="C400" s="8"/>
-      <c r="D400" s="8"/>
-      <c r="E400" s="9"/>
+      <c r="B400" s="7"/>
+      <c r="C400" s="7"/>
+      <c r="D400" s="7"/>
+      <c r="E400" s="8"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
@@ -10980,13 +10991,13 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="7" t="s">
+      <c r="A402" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="B402" s="8"/>
-      <c r="C402" s="8"/>
-      <c r="D402" s="8"/>
-      <c r="E402" s="9"/>
+      <c r="B402" s="7"/>
+      <c r="C402" s="7"/>
+      <c r="D402" s="7"/>
+      <c r="E402" s="8"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
@@ -11089,13 +11100,13 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="7" t="s">
+      <c r="A408" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B408" s="8"/>
-      <c r="C408" s="8"/>
-      <c r="D408" s="8"/>
-      <c r="E408" s="9"/>
+      <c r="B408" s="7"/>
+      <c r="C408" s="7"/>
+      <c r="D408" s="7"/>
+      <c r="E408" s="8"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
@@ -11216,13 +11227,13 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="7" t="s">
+      <c r="A415" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="9"/>
+      <c r="B415" s="7"/>
+      <c r="C415" s="7"/>
+      <c r="D415" s="7"/>
+      <c r="E415" s="8"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
@@ -11303,13 +11314,13 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="7" t="s">
+      <c r="A420" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
-      <c r="D420" s="8"/>
-      <c r="E420" s="9"/>
+      <c r="B420" s="7"/>
+      <c r="C420" s="7"/>
+      <c r="D420" s="7"/>
+      <c r="E420" s="8"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
@@ -11372,13 +11383,13 @@
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="7" t="s">
+      <c r="A424" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B424" s="8"/>
-      <c r="C424" s="8"/>
-      <c r="D424" s="8"/>
-      <c r="E424" s="9"/>
+      <c r="B424" s="7"/>
+      <c r="C424" s="7"/>
+      <c r="D424" s="7"/>
+      <c r="E424" s="8"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
@@ -11441,13 +11452,13 @@
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="7" t="s">
+      <c r="A428" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B428" s="8"/>
-      <c r="C428" s="8"/>
-      <c r="D428" s="8"/>
-      <c r="E428" s="9"/>
+      <c r="B428" s="7"/>
+      <c r="C428" s="7"/>
+      <c r="D428" s="7"/>
+      <c r="E428" s="8"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
@@ -12518,13 +12529,13 @@
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="7" t="s">
+      <c r="A484" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B484" s="8"/>
-      <c r="C484" s="8"/>
-      <c r="D484" s="8"/>
-      <c r="E484" s="9"/>
+      <c r="B484" s="7"/>
+      <c r="C484" s="7"/>
+      <c r="D484" s="7"/>
+      <c r="E484" s="8"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
@@ -12647,13 +12658,13 @@
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="7" t="s">
+      <c r="A491" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="B491" s="8"/>
-      <c r="C491" s="8"/>
-      <c r="D491" s="8"/>
-      <c r="E491" s="9"/>
+      <c r="B491" s="7"/>
+      <c r="C491" s="7"/>
+      <c r="D491" s="7"/>
+      <c r="E491" s="8"/>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
@@ -12736,13 +12747,13 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="7" t="s">
+      <c r="A496" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B496" s="8"/>
-      <c r="C496" s="8"/>
-      <c r="D496" s="8"/>
-      <c r="E496" s="9"/>
+      <c r="B496" s="7"/>
+      <c r="C496" s="7"/>
+      <c r="D496" s="7"/>
+      <c r="E496" s="8"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
@@ -12845,13 +12856,13 @@
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="7" t="s">
+      <c r="A502" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B502" s="8"/>
-      <c r="C502" s="8"/>
-      <c r="D502" s="8"/>
-      <c r="E502" s="9"/>
+      <c r="B502" s="7"/>
+      <c r="C502" s="7"/>
+      <c r="D502" s="7"/>
+      <c r="E502" s="8"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
@@ -13246,13 +13257,13 @@
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="7" t="s">
+      <c r="A523" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="B523" s="8"/>
-      <c r="C523" s="8"/>
-      <c r="D523" s="8"/>
-      <c r="E523" s="9"/>
+      <c r="B523" s="7"/>
+      <c r="C523" s="7"/>
+      <c r="D523" s="7"/>
+      <c r="E523" s="8"/>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
@@ -13375,13 +13386,13 @@
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="7" t="s">
+      <c r="A530" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B530" s="8"/>
-      <c r="C530" s="8"/>
-      <c r="D530" s="8"/>
-      <c r="E530" s="9"/>
+      <c r="B530" s="7"/>
+      <c r="C530" s="7"/>
+      <c r="D530" s="7"/>
+      <c r="E530" s="8"/>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
@@ -13444,13 +13455,13 @@
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="7" t="s">
+      <c r="A534" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="B534" s="8"/>
-      <c r="C534" s="8"/>
-      <c r="D534" s="8"/>
-      <c r="E534" s="9"/>
+      <c r="B534" s="7"/>
+      <c r="C534" s="7"/>
+      <c r="D534" s="7"/>
+      <c r="E534" s="8"/>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
@@ -13593,13 +13604,13 @@
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="6" t="s">
+      <c r="A542" s="9" t="s">
         <v>761</v>
       </c>
-      <c r="B542" s="6"/>
-      <c r="C542" s="6"/>
-      <c r="D542" s="6"/>
-      <c r="E542" s="6"/>
+      <c r="B542" s="9"/>
+      <c r="C542" s="9"/>
+      <c r="D542" s="9"/>
+      <c r="E542" s="9"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
@@ -13962,13 +13973,13 @@
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="7" t="s">
+      <c r="A561" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="B561" s="8"/>
-      <c r="C561" s="8"/>
-      <c r="D561" s="8"/>
-      <c r="E561" s="9"/>
+      <c r="B561" s="7"/>
+      <c r="C561" s="7"/>
+      <c r="D561" s="7"/>
+      <c r="E561" s="8"/>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
@@ -14309,13 +14320,13 @@
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A579" s="7" t="s">
+      <c r="A579" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B579" s="8"/>
-      <c r="C579" s="8"/>
-      <c r="D579" s="8"/>
-      <c r="E579" s="9"/>
+      <c r="B579" s="7"/>
+      <c r="C579" s="7"/>
+      <c r="D579" s="7"/>
+      <c r="E579" s="8"/>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
@@ -14636,13 +14647,13 @@
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A596" s="7" t="s">
+      <c r="A596" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B596" s="8"/>
-      <c r="C596" s="8"/>
-      <c r="D596" s="8"/>
-      <c r="E596" s="9"/>
+      <c r="B596" s="7"/>
+      <c r="C596" s="7"/>
+      <c r="D596" s="7"/>
+      <c r="E596" s="8"/>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
@@ -15025,13 +15036,13 @@
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A616" s="7" t="s">
+      <c r="A616" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B616" s="8"/>
-      <c r="C616" s="8"/>
-      <c r="D616" s="8"/>
-      <c r="E616" s="9"/>
+      <c r="B616" s="7"/>
+      <c r="C616" s="7"/>
+      <c r="D616" s="7"/>
+      <c r="E616" s="8"/>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
@@ -15134,13 +15145,13 @@
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A622" s="7" t="s">
+      <c r="A622" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B622" s="8"/>
-      <c r="C622" s="8"/>
-      <c r="D622" s="8"/>
-      <c r="E622" s="9"/>
+      <c r="B622" s="7"/>
+      <c r="C622" s="7"/>
+      <c r="D622" s="7"/>
+      <c r="E622" s="8"/>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
@@ -15203,13 +15214,13 @@
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A626" s="7" t="s">
+      <c r="A626" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="B626" s="8"/>
-      <c r="C626" s="8"/>
-      <c r="D626" s="8"/>
-      <c r="E626" s="9"/>
+      <c r="B626" s="7"/>
+      <c r="C626" s="7"/>
+      <c r="D626" s="7"/>
+      <c r="E626" s="8"/>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
@@ -15284,13 +15295,13 @@
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A631" s="7" t="s">
+      <c r="A631" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B631" s="8"/>
-      <c r="C631" s="8"/>
-      <c r="D631" s="8"/>
-      <c r="E631" s="9"/>
+      <c r="B631" s="7"/>
+      <c r="C631" s="7"/>
+      <c r="D631" s="7"/>
+      <c r="E631" s="8"/>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
@@ -15353,13 +15364,13 @@
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A635" s="7" t="s">
+      <c r="A635" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B635" s="8"/>
-      <c r="C635" s="8"/>
-      <c r="D635" s="8"/>
-      <c r="E635" s="9"/>
+      <c r="B635" s="7"/>
+      <c r="C635" s="7"/>
+      <c r="D635" s="7"/>
+      <c r="E635" s="8"/>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
@@ -15580,13 +15591,13 @@
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A647" s="7" t="s">
+      <c r="A647" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B647" s="8"/>
-      <c r="C647" s="8"/>
-      <c r="D647" s="8"/>
-      <c r="E647" s="9"/>
+      <c r="B647" s="7"/>
+      <c r="C647" s="7"/>
+      <c r="D647" s="7"/>
+      <c r="E647" s="8"/>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
@@ -15649,13 +15660,13 @@
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A651" s="7" t="s">
+      <c r="A651" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="B651" s="8"/>
-      <c r="C651" s="8"/>
-      <c r="D651" s="8"/>
-      <c r="E651" s="9"/>
+      <c r="B651" s="7"/>
+      <c r="C651" s="7"/>
+      <c r="D651" s="7"/>
+      <c r="E651" s="8"/>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
@@ -15714,13 +15725,13 @@
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A655" s="7" t="s">
+      <c r="A655" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B655" s="8"/>
-      <c r="C655" s="8"/>
-      <c r="D655" s="8"/>
-      <c r="E655" s="9"/>
+      <c r="B655" s="7"/>
+      <c r="C655" s="7"/>
+      <c r="D655" s="7"/>
+      <c r="E655" s="8"/>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
@@ -15861,13 +15872,13 @@
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A663" s="7" t="s">
+      <c r="A663" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B663" s="8"/>
-      <c r="C663" s="8"/>
-      <c r="D663" s="8"/>
-      <c r="E663" s="9"/>
+      <c r="B663" s="7"/>
+      <c r="C663" s="7"/>
+      <c r="D663" s="7"/>
+      <c r="E663" s="8"/>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
@@ -15950,13 +15961,13 @@
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A668" s="7" t="s">
+      <c r="A668" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="B668" s="8"/>
-      <c r="C668" s="8"/>
-      <c r="D668" s="8"/>
-      <c r="E668" s="9"/>
+      <c r="B668" s="7"/>
+      <c r="C668" s="7"/>
+      <c r="D668" s="7"/>
+      <c r="E668" s="8"/>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
@@ -16039,13 +16050,13 @@
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A673" s="7" t="s">
+      <c r="A673" s="6" t="s">
         <v>770</v>
       </c>
-      <c r="B673" s="8"/>
-      <c r="C673" s="8"/>
-      <c r="D673" s="8"/>
-      <c r="E673" s="9"/>
+      <c r="B673" s="7"/>
+      <c r="C673" s="7"/>
+      <c r="D673" s="7"/>
+      <c r="E673" s="8"/>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
@@ -16108,13 +16119,13 @@
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A677" s="7" t="s">
+      <c r="A677" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B677" s="8"/>
-      <c r="C677" s="8"/>
-      <c r="D677" s="8"/>
-      <c r="E677" s="9"/>
+      <c r="B677" s="7"/>
+      <c r="C677" s="7"/>
+      <c r="D677" s="7"/>
+      <c r="E677" s="8"/>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
@@ -16681,13 +16692,13 @@
       </c>
     </row>
     <row r="707" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A707" s="7" t="s">
+      <c r="A707" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B707" s="8"/>
-      <c r="C707" s="8"/>
-      <c r="D707" s="8"/>
-      <c r="E707" s="9"/>
+      <c r="B707" s="7"/>
+      <c r="C707" s="7"/>
+      <c r="D707" s="7"/>
+      <c r="E707" s="8"/>
     </row>
     <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
@@ -16768,13 +16779,13 @@
       </c>
     </row>
     <row r="712" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A712" s="7" t="s">
+      <c r="A712" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B712" s="8"/>
-      <c r="C712" s="8"/>
-      <c r="D712" s="8"/>
-      <c r="E712" s="9"/>
+      <c r="B712" s="7"/>
+      <c r="C712" s="7"/>
+      <c r="D712" s="7"/>
+      <c r="E712" s="8"/>
     </row>
     <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
@@ -17077,13 +17088,13 @@
       </c>
     </row>
     <row r="728" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A728" s="7" t="s">
+      <c r="A728" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B728" s="8"/>
-      <c r="C728" s="8"/>
-      <c r="D728" s="8"/>
-      <c r="E728" s="9"/>
+      <c r="B728" s="7"/>
+      <c r="C728" s="7"/>
+      <c r="D728" s="7"/>
+      <c r="E728" s="8"/>
     </row>
     <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
@@ -17326,13 +17337,13 @@
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A741" s="7" t="s">
+      <c r="A741" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B741" s="8"/>
-      <c r="C741" s="8"/>
-      <c r="D741" s="8"/>
-      <c r="E741" s="9"/>
+      <c r="B741" s="7"/>
+      <c r="C741" s="7"/>
+      <c r="D741" s="7"/>
+      <c r="E741" s="8"/>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
@@ -17769,13 +17780,13 @@
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A764" s="6" t="s">
+      <c r="A764" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="B764" s="6"/>
-      <c r="C764" s="6"/>
-      <c r="D764" s="6"/>
-      <c r="E764" s="6"/>
+      <c r="B764" s="9"/>
+      <c r="C764" s="9"/>
+      <c r="D764" s="9"/>
+      <c r="E764" s="9"/>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
@@ -17818,13 +17829,13 @@
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A767" s="7" t="s">
+      <c r="A767" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B767" s="8"/>
-      <c r="C767" s="8"/>
-      <c r="D767" s="8"/>
-      <c r="E767" s="9"/>
+      <c r="B767" s="7"/>
+      <c r="C767" s="7"/>
+      <c r="D767" s="7"/>
+      <c r="E767" s="8"/>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
@@ -17847,13 +17858,13 @@
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A769" s="7" t="s">
+      <c r="A769" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B769" s="8"/>
-      <c r="C769" s="8"/>
-      <c r="D769" s="8"/>
-      <c r="E769" s="9"/>
+      <c r="B769" s="7"/>
+      <c r="C769" s="7"/>
+      <c r="D769" s="7"/>
+      <c r="E769" s="8"/>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
@@ -18156,13 +18167,13 @@
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="7" t="s">
+      <c r="A785" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B785" s="8"/>
-      <c r="C785" s="8"/>
-      <c r="D785" s="8"/>
-      <c r="E785" s="9"/>
+      <c r="B785" s="7"/>
+      <c r="C785" s="7"/>
+      <c r="D785" s="7"/>
+      <c r="E785" s="8"/>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
@@ -18203,13 +18214,13 @@
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A788" s="7" t="s">
+      <c r="A788" s="6" t="s">
         <v>776</v>
       </c>
-      <c r="B788" s="8"/>
-      <c r="C788" s="8"/>
-      <c r="D788" s="8"/>
-      <c r="E788" s="9"/>
+      <c r="B788" s="7"/>
+      <c r="C788" s="7"/>
+      <c r="D788" s="7"/>
+      <c r="E788" s="8"/>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
@@ -18252,13 +18263,13 @@
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A791" s="7" t="s">
+      <c r="A791" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B791" s="8"/>
-      <c r="C791" s="8"/>
-      <c r="D791" s="8"/>
-      <c r="E791" s="9"/>
+      <c r="B791" s="7"/>
+      <c r="C791" s="7"/>
+      <c r="D791" s="7"/>
+      <c r="E791" s="8"/>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
@@ -18301,13 +18312,13 @@
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A794" s="7" t="s">
+      <c r="A794" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="B794" s="8"/>
-      <c r="C794" s="8"/>
-      <c r="D794" s="8"/>
-      <c r="E794" s="9"/>
+      <c r="B794" s="7"/>
+      <c r="C794" s="7"/>
+      <c r="D794" s="7"/>
+      <c r="E794" s="8"/>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
@@ -18370,13 +18381,13 @@
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A798" s="7" t="s">
+      <c r="A798" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B798" s="8"/>
-      <c r="C798" s="8"/>
-      <c r="D798" s="8"/>
-      <c r="E798" s="9"/>
+      <c r="B798" s="7"/>
+      <c r="C798" s="7"/>
+      <c r="D798" s="7"/>
+      <c r="E798" s="8"/>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
@@ -18399,16 +18410,61 @@
   </sheetData>
   <autoFilter ref="A1:E799" xr:uid="{CE6A3851-59A1-4952-821B-72D450099A2E}"/>
   <mergeCells count="77">
-    <mergeCell ref="A788:E788"/>
-    <mergeCell ref="A791:E791"/>
-    <mergeCell ref="A794:E794"/>
-    <mergeCell ref="A798:E798"/>
-    <mergeCell ref="A728:E728"/>
-    <mergeCell ref="A741:E741"/>
-    <mergeCell ref="A764:E764"/>
-    <mergeCell ref="A767:E767"/>
-    <mergeCell ref="A769:E769"/>
-    <mergeCell ref="A785:E785"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="A83:E83"/>
+    <mergeCell ref="A87:E87"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A125:E125"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A132:E132"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A157:E157"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A342:E342"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="A185:E185"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="A207:E207"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A272:E272"/>
+    <mergeCell ref="A287:E287"/>
+    <mergeCell ref="A302:E302"/>
+    <mergeCell ref="A321:E321"/>
+    <mergeCell ref="A484:E484"/>
+    <mergeCell ref="A346:E346"/>
+    <mergeCell ref="A374:E374"/>
+    <mergeCell ref="A387:E387"/>
+    <mergeCell ref="A397:E397"/>
+    <mergeCell ref="A400:E400"/>
+    <mergeCell ref="A402:E402"/>
+    <mergeCell ref="A408:E408"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A420:E420"/>
+    <mergeCell ref="A424:E424"/>
+    <mergeCell ref="A428:E428"/>
+    <mergeCell ref="A622:E622"/>
+    <mergeCell ref="A491:E491"/>
+    <mergeCell ref="A496:E496"/>
+    <mergeCell ref="A502:E502"/>
+    <mergeCell ref="A523:E523"/>
+    <mergeCell ref="A530:E530"/>
+    <mergeCell ref="A534:E534"/>
+    <mergeCell ref="A542:E542"/>
+    <mergeCell ref="A561:E561"/>
+    <mergeCell ref="A579:E579"/>
+    <mergeCell ref="A596:E596"/>
+    <mergeCell ref="A616:E616"/>
     <mergeCell ref="A712:E712"/>
     <mergeCell ref="A626:E626"/>
     <mergeCell ref="A631:E631"/>
@@ -18421,63 +18477,6121 @@
     <mergeCell ref="A673:E673"/>
     <mergeCell ref="A677:E677"/>
     <mergeCell ref="A707:E707"/>
-    <mergeCell ref="A622:E622"/>
-    <mergeCell ref="A491:E491"/>
-    <mergeCell ref="A496:E496"/>
-    <mergeCell ref="A502:E502"/>
-    <mergeCell ref="A523:E523"/>
-    <mergeCell ref="A530:E530"/>
-    <mergeCell ref="A534:E534"/>
-    <mergeCell ref="A542:E542"/>
-    <mergeCell ref="A561:E561"/>
-    <mergeCell ref="A579:E579"/>
-    <mergeCell ref="A596:E596"/>
-    <mergeCell ref="A616:E616"/>
-    <mergeCell ref="A484:E484"/>
-    <mergeCell ref="A346:E346"/>
-    <mergeCell ref="A374:E374"/>
-    <mergeCell ref="A387:E387"/>
-    <mergeCell ref="A397:E397"/>
-    <mergeCell ref="A400:E400"/>
-    <mergeCell ref="A402:E402"/>
-    <mergeCell ref="A408:E408"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A420:E420"/>
-    <mergeCell ref="A424:E424"/>
-    <mergeCell ref="A428:E428"/>
-    <mergeCell ref="A342:E342"/>
-    <mergeCell ref="A182:E182"/>
-    <mergeCell ref="A185:E185"/>
-    <mergeCell ref="A191:E191"/>
-    <mergeCell ref="A197:E197"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="A272:E272"/>
-    <mergeCell ref="A287:E287"/>
-    <mergeCell ref="A302:E302"/>
-    <mergeCell ref="A321:E321"/>
-    <mergeCell ref="A172:E172"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="A125:E125"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A132:E132"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="A788:E788"/>
+    <mergeCell ref="A791:E791"/>
+    <mergeCell ref="A794:E794"/>
+    <mergeCell ref="A798:E798"/>
+    <mergeCell ref="A728:E728"/>
+    <mergeCell ref="A741:E741"/>
+    <mergeCell ref="A764:E764"/>
+    <mergeCell ref="A767:E767"/>
+    <mergeCell ref="A769:E769"/>
+    <mergeCell ref="A785:E785"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8649B479-F3BC-4BB4-94D5-9570D22CE72D}">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{4CDB4EAF-1E1E-4F88-A565-6883B9F9E719}">
+    <sortState ref="A2:B78">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8F24E3-F19A-4D86-8E87-251830788993}">
+  <dimension ref="A1:E798"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1501011001</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1501011001</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1501101003</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1501101003</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>9818011001</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>9818011001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>9808011001</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9808011001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>9816011002</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9816011002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>9809011001</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9809011001</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>9903071001</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9903071001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9905011001</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9905011001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1312011001</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1312011001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9701161001</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2">
+        <v>9701161001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>1305011001</v>
+      </c>
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1305011001</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1401161001</v>
+      </c>
+      <c r="B13">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1401161001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1028161001</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1028161001</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1309011001</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1309011001</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1501101001</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1501101001</v>
+      </c>
+      <c r="D16" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1307011001</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1307011001</v>
+      </c>
+      <c r="D17" s="2">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>1306011001</v>
+      </c>
+      <c r="B18">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1306011001</v>
+      </c>
+      <c r="D18" s="2">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>1024161001</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1024161001</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>9803011001</v>
+      </c>
+      <c r="B20">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>9803011001</v>
+      </c>
+      <c r="D20" s="2">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1031161002</v>
+      </c>
+      <c r="B21">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1031161002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>1001101015</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1001101015</v>
+      </c>
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>9813011001</v>
+      </c>
+      <c r="B23">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9813011001</v>
+      </c>
+      <c r="D23" s="2">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>9903011001</v>
+      </c>
+      <c r="B24">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9903011001</v>
+      </c>
+      <c r="D24" s="2">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>1501110101</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1501110101</v>
+      </c>
+      <c r="D25" s="2">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>9904011001</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9904011001</v>
+      </c>
+      <c r="D26" s="2">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>1501101004</v>
+      </c>
+      <c r="B27">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1501101004</v>
+      </c>
+      <c r="D27" s="2">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>1401011001</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1401011001</v>
+      </c>
+      <c r="D28" s="2">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>9802011001</v>
+      </c>
+      <c r="B29">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9802011001</v>
+      </c>
+      <c r="D29" s="2">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>1014011001</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1014011001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>28</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>1001101006</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1001101006</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>9806011001</v>
+      </c>
+      <c r="B32">
+        <v>33</v>
+      </c>
+      <c r="C32" s="2">
+        <v>9806011001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>30</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>1310011001</v>
+      </c>
+      <c r="B33">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1310011001</v>
+      </c>
+      <c r="D33" s="2">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>1005011001</v>
+      </c>
+      <c r="B34">
+        <v>35</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1005011001</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>1006011001</v>
+      </c>
+      <c r="B35">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1006011001</v>
+      </c>
+      <c r="D35" s="2">
+        <v>33</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1019011001</v>
+      </c>
+      <c r="B36">
+        <v>37</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1019011001</v>
+      </c>
+      <c r="D36" s="2">
+        <v>34</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>1020011001</v>
+      </c>
+      <c r="B37">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1020011001</v>
+      </c>
+      <c r="D37" s="2">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1001101005</v>
+      </c>
+      <c r="B38">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1001101005</v>
+      </c>
+      <c r="D38" s="2">
+        <v>36</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1001101004</v>
+      </c>
+      <c r="B39">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1001101004</v>
+      </c>
+      <c r="D39" s="2">
+        <v>37</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1001101011</v>
+      </c>
+      <c r="B40">
+        <v>41</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1001101011</v>
+      </c>
+      <c r="D40" s="2">
+        <v>38</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1302011001</v>
+      </c>
+      <c r="B41">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1302011001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1010011001</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1010011001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1001161001</v>
+      </c>
+      <c r="B43">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1001161001</v>
+      </c>
+      <c r="D43" s="2">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>9603011001</v>
+      </c>
+      <c r="B44">
+        <v>45</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9603011001</v>
+      </c>
+      <c r="D44" s="2">
+        <v>42</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>9807011001</v>
+      </c>
+      <c r="B45">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9807011001</v>
+      </c>
+      <c r="D45" s="2">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1003011001</v>
+      </c>
+      <c r="B46">
+        <v>47</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1003011001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1018011001</v>
+      </c>
+      <c r="B47">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1018011001</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1013011001</v>
+      </c>
+      <c r="B48">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1013011001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>1031120202</v>
+      </c>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1031120202</v>
+      </c>
+      <c r="D49" s="2">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>1015011001</v>
+      </c>
+      <c r="B50">
+        <v>51</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1015011001</v>
+      </c>
+      <c r="D50" s="2">
+        <v>48</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>9901021001</v>
+      </c>
+      <c r="B51">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9901021001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>49</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>1004011001</v>
+      </c>
+      <c r="B52">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1004011001</v>
+      </c>
+      <c r="D52" s="2">
+        <v>50</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>1315011001</v>
+      </c>
+      <c r="B53">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1315011001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>51</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>9903031001</v>
+      </c>
+      <c r="B54">
+        <v>55</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9903031001</v>
+      </c>
+      <c r="D54" s="2">
+        <v>52</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>1201140101</v>
+      </c>
+      <c r="B55">
+        <v>56</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1201140101</v>
+      </c>
+      <c r="D55" s="2">
+        <v>53</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>9902011001</v>
+      </c>
+      <c r="B56">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>9902011001</v>
+      </c>
+      <c r="D56" s="2">
+        <v>54</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>9901011001</v>
+      </c>
+      <c r="B57">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9901011001</v>
+      </c>
+      <c r="D57" s="2">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>9801011001</v>
+      </c>
+      <c r="B58">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9801011001</v>
+      </c>
+      <c r="D58" s="2">
+        <v>56</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>1401140101</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1401140101</v>
+      </c>
+      <c r="D59" s="2">
+        <v>57</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>1002011001</v>
+      </c>
+      <c r="B60">
+        <v>61</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1002011001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>1026130209</v>
+      </c>
+      <c r="B61">
+        <v>62</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1026130209</v>
+      </c>
+      <c r="D61" s="2">
+        <v>59</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>1017011001</v>
+      </c>
+      <c r="B62">
+        <v>63</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1017011001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>60</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>1021011001</v>
+      </c>
+      <c r="B63">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1021011001</v>
+      </c>
+      <c r="D63" s="2">
+        <v>61</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>1022011001</v>
+      </c>
+      <c r="B64">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1022011001</v>
+      </c>
+      <c r="D64" s="2">
+        <v>62</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>1016011001</v>
+      </c>
+      <c r="B65">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1016011001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>63</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>1901101008</v>
+      </c>
+      <c r="B66">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1901101008</v>
+      </c>
+      <c r="D66" s="2">
+        <v>64</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>1901101004</v>
+      </c>
+      <c r="B67">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1901101004</v>
+      </c>
+      <c r="D67" s="2">
+        <v>65</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>1301110201</v>
+      </c>
+      <c r="B68">
+        <v>69</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1301110201</v>
+      </c>
+      <c r="D68" s="2">
+        <v>66</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="10">
+        <v>1301110301</v>
+      </c>
+      <c r="B69">
+        <v>70</v>
+      </c>
+      <c r="C69" s="10">
+        <v>1301110301</v>
+      </c>
+      <c r="D69" s="10">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>1801101001</v>
+      </c>
+      <c r="B70">
+        <v>71</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1801101001</v>
+      </c>
+      <c r="D70" s="2">
+        <v>68</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>9901031001</v>
+      </c>
+      <c r="B71">
+        <v>72</v>
+      </c>
+      <c r="C71" s="2">
+        <v>9901031001</v>
+      </c>
+      <c r="D71" s="2">
+        <v>69</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>9901041001</v>
+      </c>
+      <c r="B72">
+        <v>73</v>
+      </c>
+      <c r="C72" s="2">
+        <v>9901041001</v>
+      </c>
+      <c r="D72" s="2">
+        <v>70</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>1301101001</v>
+      </c>
+      <c r="B73">
+        <v>74</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1301101001</v>
+      </c>
+      <c r="D73" s="2">
+        <v>71</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>1301011001</v>
+      </c>
+      <c r="B74">
+        <v>75</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1301011001</v>
+      </c>
+      <c r="D74" s="2">
+        <v>72</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>1701011001</v>
+      </c>
+      <c r="B75">
+        <v>76</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1701011001</v>
+      </c>
+      <c r="D75" s="2">
+        <v>73</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>9901051001</v>
+      </c>
+      <c r="B76">
+        <v>77</v>
+      </c>
+      <c r="C76" s="2">
+        <v>9901051001</v>
+      </c>
+      <c r="D76" s="2">
+        <v>74</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>1101011001</v>
+      </c>
+      <c r="B77">
+        <v>78</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1101011001</v>
+      </c>
+      <c r="D77" s="2">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>1901101003</v>
+      </c>
+      <c r="B78">
+        <v>79</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1901101003</v>
+      </c>
+      <c r="D78" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>1901101001</v>
+      </c>
+      <c r="B79">
+        <v>80</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1901101001</v>
+      </c>
+      <c r="D79" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>1601011001</v>
+      </c>
+      <c r="B80">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1601011001</v>
+      </c>
+      <c r="D80" s="2">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="10">
+        <v>9812011001</v>
+      </c>
+      <c r="B81">
+        <v>82</v>
+      </c>
+      <c r="C81" s="10">
+        <v>9812011001</v>
+      </c>
+      <c r="D81" s="10">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>1601101010</v>
+      </c>
+      <c r="B82">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1601101010</v>
+      </c>
+      <c r="D82" s="2">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>1202011001</v>
+      </c>
+      <c r="B83">
+        <v>84</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1202011001</v>
+      </c>
+      <c r="D83" s="2">
+        <v>81</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>9602011001</v>
+      </c>
+      <c r="B84">
+        <v>85</v>
+      </c>
+      <c r="C84" s="2">
+        <v>9602011001</v>
+      </c>
+      <c r="D84" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="10">
+        <v>1301120101</v>
+      </c>
+      <c r="B85">
+        <v>86</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1301120101</v>
+      </c>
+      <c r="D85" s="10">
+        <v>83</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>1901101005</v>
+      </c>
+      <c r="B86">
+        <v>87</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1901101005</v>
+      </c>
+      <c r="D86" s="2">
+        <v>84</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>1901101007</v>
+      </c>
+      <c r="B87">
+        <v>88</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1901101007</v>
+      </c>
+      <c r="D87" s="2">
+        <v>85</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>5001011001</v>
+      </c>
+      <c r="B88">
+        <v>89</v>
+      </c>
+      <c r="C88" s="2">
+        <v>5001011001</v>
+      </c>
+      <c r="D88" s="2">
+        <v>86</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>9702021001</v>
+      </c>
+      <c r="B89">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2">
+        <v>9702021001</v>
+      </c>
+      <c r="D89" s="2">
+        <v>87</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>9601011001</v>
+      </c>
+      <c r="B90">
+        <v>91</v>
+      </c>
+      <c r="C90" s="2">
+        <v>9601011001</v>
+      </c>
+      <c r="D90" s="2">
+        <v>88</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>9805011001</v>
+      </c>
+      <c r="B91">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2">
+        <v>9805011001</v>
+      </c>
+      <c r="D91" s="2">
+        <v>89</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>9804011001</v>
+      </c>
+      <c r="B92">
+        <v>93</v>
+      </c>
+      <c r="C92" s="2">
+        <v>9804011001</v>
+      </c>
+      <c r="D92" s="2">
+        <v>90</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>1304011001</v>
+      </c>
+      <c r="B93">
+        <v>94</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1304011001</v>
+      </c>
+      <c r="D93" s="2">
+        <v>91</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>9906091001</v>
+      </c>
+      <c r="B94">
+        <v>95</v>
+      </c>
+      <c r="C94" s="2">
+        <v>9906091001</v>
+      </c>
+      <c r="D94" s="2">
+        <v>92</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>9810011001</v>
+      </c>
+      <c r="B95">
+        <v>96</v>
+      </c>
+      <c r="C95" s="2">
+        <v>9810011001</v>
+      </c>
+      <c r="D95" s="2">
+        <v>93</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="10">
+        <v>1201101001</v>
+      </c>
+      <c r="B96">
+        <v>97</v>
+      </c>
+      <c r="C96" s="10">
+        <v>1201101001</v>
+      </c>
+      <c r="D96" s="10">
+        <v>94</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>1401101001</v>
+      </c>
+      <c r="B97">
+        <v>98</v>
+      </c>
+      <c r="C97" s="2">
+        <v>1401101001</v>
+      </c>
+      <c r="D97" s="2">
+        <v>95</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>1031110206</v>
+      </c>
+      <c r="B98">
+        <v>99</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1031110206</v>
+      </c>
+      <c r="D98" s="2">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>9701011001</v>
+      </c>
+      <c r="B99">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2">
+        <v>9701011001</v>
+      </c>
+      <c r="D99" s="2">
+        <v>97</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>9703011001</v>
+      </c>
+      <c r="B100">
+        <v>101</v>
+      </c>
+      <c r="C100" s="2">
+        <v>9703011001</v>
+      </c>
+      <c r="D100" s="2">
+        <v>98</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="10">
+        <v>1001101017</v>
+      </c>
+      <c r="B101">
+        <v>102</v>
+      </c>
+      <c r="C101" s="10">
+        <v>1001101017</v>
+      </c>
+      <c r="D101" s="10">
+        <v>99</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>1303011001</v>
+      </c>
+      <c r="B102">
+        <v>103</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1303011001</v>
+      </c>
+      <c r="D102" s="2">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>9702071001</v>
+      </c>
+      <c r="B103">
+        <v>104</v>
+      </c>
+      <c r="C103" s="2">
+        <v>9702071001</v>
+      </c>
+      <c r="D103" s="2">
+        <v>101</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>9701161002</v>
+      </c>
+      <c r="B104">
+        <v>105</v>
+      </c>
+      <c r="C104" s="2">
+        <v>9701161002</v>
+      </c>
+      <c r="D104" s="2">
+        <v>102</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="10">
+        <v>1029011001</v>
+      </c>
+      <c r="B105">
+        <v>106</v>
+      </c>
+      <c r="C105" s="10">
+        <v>1029011001</v>
+      </c>
+      <c r="D105" s="10">
+        <v>103</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>9702011001</v>
+      </c>
+      <c r="B106">
+        <v>107</v>
+      </c>
+      <c r="C106" s="2">
+        <v>9702011001</v>
+      </c>
+      <c r="D106" s="2">
+        <v>104</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>1001101016</v>
+      </c>
+      <c r="B107">
+        <v>108</v>
+      </c>
+      <c r="C107" s="2">
+        <v>1001101016</v>
+      </c>
+      <c r="D107" s="2">
+        <v>105</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>9401011001</v>
+      </c>
+      <c r="B108">
+        <v>109</v>
+      </c>
+      <c r="C108" s="2">
+        <v>9401011001</v>
+      </c>
+      <c r="D108" s="2">
+        <v>106</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>9816011001</v>
+      </c>
+      <c r="B109">
+        <v>110</v>
+      </c>
+      <c r="C109" s="2">
+        <v>9816011001</v>
+      </c>
+      <c r="D109" s="2">
+        <v>107</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>9901061001</v>
+      </c>
+      <c r="B110">
+        <v>111</v>
+      </c>
+      <c r="C110" s="2">
+        <v>9901061001</v>
+      </c>
+      <c r="D110" s="2">
+        <v>108</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>9820011001</v>
+      </c>
+      <c r="B111">
+        <v>112</v>
+      </c>
+      <c r="C111" s="2">
+        <v>9820011001</v>
+      </c>
+      <c r="D111" s="2">
+        <v>109</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="10">
+        <v>9701031001</v>
+      </c>
+      <c r="B112">
+        <v>113</v>
+      </c>
+      <c r="C112" s="10">
+        <v>9701031001</v>
+      </c>
+      <c r="D112" s="10">
+        <v>110</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>1314011001</v>
+      </c>
+      <c r="B113">
+        <v>114</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1314011001</v>
+      </c>
+      <c r="D113" s="2">
+        <v>111</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>1313011001</v>
+      </c>
+      <c r="B114">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1313011001</v>
+      </c>
+      <c r="D114" s="2">
+        <v>112</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2">
+        <v>1502151023</v>
+      </c>
+      <c r="B115">
+        <v>116</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1502151023</v>
+      </c>
+      <c r="D115" s="2">
+        <v>113</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2">
+        <v>9906011001</v>
+      </c>
+      <c r="B116">
+        <v>117</v>
+      </c>
+      <c r="C116" s="2">
+        <v>9906011001</v>
+      </c>
+      <c r="D116" s="2">
+        <v>114</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2">
+        <v>9906061001</v>
+      </c>
+      <c r="B117">
+        <v>118</v>
+      </c>
+      <c r="C117" s="2">
+        <v>9906061001</v>
+      </c>
+      <c r="D117" s="2">
+        <v>115</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2">
+        <v>9701041001</v>
+      </c>
+      <c r="B118">
+        <v>119</v>
+      </c>
+      <c r="C118" s="2">
+        <v>9701041001</v>
+      </c>
+      <c r="D118" s="2">
+        <v>116</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="10">
+        <v>1101101001</v>
+      </c>
+      <c r="B119">
+        <v>120</v>
+      </c>
+      <c r="C119" s="10">
+        <v>1101101001</v>
+      </c>
+      <c r="D119" s="10">
+        <v>117</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2">
+        <v>9808011002</v>
+      </c>
+      <c r="B120">
+        <v>121</v>
+      </c>
+      <c r="C120" s="2">
+        <v>9808011002</v>
+      </c>
+      <c r="D120" s="2">
+        <v>118</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2">
+        <v>9702041001</v>
+      </c>
+      <c r="B121">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2">
+        <v>9702041001</v>
+      </c>
+      <c r="D121" s="2">
+        <v>119</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+    </row>
+    <row r="123" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+    </row>
+    <row r="124" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+    </row>
+    <row r="125" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+    </row>
+    <row r="126" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+    </row>
+    <row r="127" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+    </row>
+    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+    </row>
+    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+    </row>
+    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+    </row>
+    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+    </row>
+    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+    </row>
+    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+    </row>
+    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+    </row>
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+    </row>
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+    </row>
+    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+    </row>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+    </row>
+    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+    </row>
+    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+    </row>
+    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+    </row>
+    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+    </row>
+    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+    </row>
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+    </row>
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+    </row>
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+    </row>
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+    </row>
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+    </row>
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+    </row>
+    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+    </row>
+    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205"/>
+      <c r="C205"/>
+      <c r="D205"/>
+    </row>
+    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206"/>
+      <c r="C206"/>
+      <c r="D206"/>
+    </row>
+    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207"/>
+      <c r="C207"/>
+      <c r="D207"/>
+    </row>
+    <row r="208" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+    </row>
+    <row r="209" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+    </row>
+    <row r="211" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+    </row>
+    <row r="212" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212"/>
+      <c r="C212"/>
+      <c r="D212"/>
+    </row>
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="C213"/>
+      <c r="D213"/>
+    </row>
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+      <c r="C214"/>
+      <c r="D214"/>
+    </row>
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+      <c r="C215"/>
+      <c r="D215"/>
+    </row>
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A216"/>
+      <c r="C216"/>
+      <c r="D216"/>
+    </row>
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A217"/>
+      <c r="C217"/>
+      <c r="D217"/>
+    </row>
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218"/>
+      <c r="C218"/>
+      <c r="D218"/>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219"/>
+      <c r="C219"/>
+      <c r="D219"/>
+    </row>
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220"/>
+      <c r="C220"/>
+      <c r="D220"/>
+    </row>
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221"/>
+      <c r="C221"/>
+      <c r="D221"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+    </row>
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223"/>
+      <c r="C223"/>
+      <c r="D223"/>
+    </row>
+    <row r="224" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224"/>
+      <c r="C224"/>
+      <c r="D224"/>
+    </row>
+    <row r="225" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225"/>
+      <c r="C225"/>
+      <c r="D225"/>
+    </row>
+    <row r="226" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226"/>
+      <c r="C226"/>
+      <c r="D226"/>
+    </row>
+    <row r="227" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227"/>
+      <c r="C227"/>
+      <c r="D227"/>
+    </row>
+    <row r="228" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228"/>
+      <c r="C228"/>
+      <c r="D228"/>
+    </row>
+    <row r="229" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229"/>
+      <c r="C229"/>
+      <c r="D229"/>
+    </row>
+    <row r="230" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230"/>
+      <c r="C230"/>
+      <c r="D230"/>
+    </row>
+    <row r="231" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231"/>
+      <c r="C231"/>
+      <c r="D231"/>
+    </row>
+    <row r="232" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232"/>
+      <c r="C232"/>
+      <c r="D232"/>
+    </row>
+    <row r="233" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233"/>
+      <c r="C233"/>
+      <c r="D233"/>
+    </row>
+    <row r="234" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234"/>
+      <c r="C234"/>
+      <c r="D234"/>
+    </row>
+    <row r="235" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235"/>
+      <c r="C235"/>
+      <c r="D235"/>
+    </row>
+    <row r="236" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236"/>
+      <c r="C236"/>
+      <c r="D236"/>
+    </row>
+    <row r="237" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237"/>
+      <c r="C237"/>
+      <c r="D237"/>
+    </row>
+    <row r="238" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238"/>
+      <c r="C238"/>
+      <c r="D238"/>
+    </row>
+    <row r="239" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239"/>
+      <c r="C239"/>
+      <c r="D239"/>
+    </row>
+    <row r="240" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240"/>
+      <c r="C240"/>
+      <c r="D240"/>
+    </row>
+    <row r="241" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241"/>
+      <c r="C241"/>
+      <c r="D241"/>
+    </row>
+    <row r="242" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242"/>
+      <c r="C242"/>
+      <c r="D242"/>
+    </row>
+    <row r="243" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243"/>
+      <c r="C243"/>
+      <c r="D243"/>
+    </row>
+    <row r="244" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244"/>
+      <c r="C244"/>
+      <c r="D244"/>
+    </row>
+    <row r="245" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245"/>
+      <c r="C245"/>
+      <c r="D245"/>
+    </row>
+    <row r="246" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246"/>
+      <c r="C246"/>
+      <c r="D246"/>
+    </row>
+    <row r="247" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247"/>
+      <c r="C247"/>
+      <c r="D247"/>
+    </row>
+    <row r="248" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248"/>
+      <c r="C248"/>
+      <c r="D248"/>
+    </row>
+    <row r="249" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249"/>
+      <c r="C249"/>
+      <c r="D249"/>
+    </row>
+    <row r="250" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250"/>
+      <c r="C250"/>
+      <c r="D250"/>
+    </row>
+    <row r="251" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A251"/>
+      <c r="C251"/>
+      <c r="D251"/>
+    </row>
+    <row r="252" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A252"/>
+      <c r="C252"/>
+      <c r="D252"/>
+    </row>
+    <row r="253" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A253"/>
+      <c r="C253"/>
+      <c r="D253"/>
+    </row>
+    <row r="254" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A254"/>
+      <c r="C254"/>
+      <c r="D254"/>
+    </row>
+    <row r="255" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A255"/>
+      <c r="C255"/>
+      <c r="D255"/>
+    </row>
+    <row r="256" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A256"/>
+      <c r="C256"/>
+      <c r="D256"/>
+    </row>
+    <row r="257" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A257"/>
+      <c r="C257"/>
+      <c r="D257"/>
+    </row>
+    <row r="258" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A258"/>
+      <c r="C258"/>
+      <c r="D258"/>
+    </row>
+    <row r="259" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A259"/>
+      <c r="C259"/>
+      <c r="D259"/>
+    </row>
+    <row r="260" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A260"/>
+      <c r="C260"/>
+      <c r="D260"/>
+    </row>
+    <row r="261" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A261"/>
+      <c r="C261"/>
+      <c r="D261"/>
+    </row>
+    <row r="262" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A262"/>
+      <c r="C262"/>
+      <c r="D262"/>
+    </row>
+    <row r="263" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A263"/>
+      <c r="C263"/>
+      <c r="D263"/>
+    </row>
+    <row r="264" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A264"/>
+      <c r="C264"/>
+      <c r="D264"/>
+    </row>
+    <row r="265" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A265"/>
+      <c r="C265"/>
+      <c r="D265"/>
+    </row>
+    <row r="266" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A266"/>
+      <c r="C266"/>
+      <c r="D266"/>
+    </row>
+    <row r="267" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A267"/>
+      <c r="C267"/>
+      <c r="D267"/>
+    </row>
+    <row r="268" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A268"/>
+      <c r="C268"/>
+      <c r="D268"/>
+    </row>
+    <row r="269" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A269"/>
+      <c r="C269"/>
+      <c r="D269"/>
+    </row>
+    <row r="270" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A270"/>
+      <c r="C270"/>
+      <c r="D270"/>
+    </row>
+    <row r="271" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A271"/>
+      <c r="C271"/>
+      <c r="D271"/>
+    </row>
+    <row r="272" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A272"/>
+      <c r="C272"/>
+      <c r="D272"/>
+    </row>
+    <row r="273" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A273"/>
+      <c r="C273"/>
+      <c r="D273"/>
+    </row>
+    <row r="274" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A274"/>
+      <c r="C274"/>
+      <c r="D274"/>
+    </row>
+    <row r="275" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A275"/>
+      <c r="C275"/>
+      <c r="D275"/>
+    </row>
+    <row r="276" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A276"/>
+      <c r="C276"/>
+      <c r="D276"/>
+    </row>
+    <row r="277" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A277"/>
+      <c r="C277"/>
+      <c r="D277"/>
+    </row>
+    <row r="278" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A278"/>
+      <c r="C278"/>
+      <c r="D278"/>
+    </row>
+    <row r="279" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A279"/>
+      <c r="C279"/>
+      <c r="D279"/>
+    </row>
+    <row r="280" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A280"/>
+      <c r="C280"/>
+      <c r="D280"/>
+    </row>
+    <row r="281" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A281"/>
+      <c r="C281"/>
+      <c r="D281"/>
+    </row>
+    <row r="282" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A282"/>
+      <c r="C282"/>
+      <c r="D282"/>
+    </row>
+    <row r="283" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A283"/>
+      <c r="C283"/>
+      <c r="D283"/>
+    </row>
+    <row r="284" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A284"/>
+      <c r="C284"/>
+      <c r="D284"/>
+    </row>
+    <row r="285" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A285"/>
+      <c r="C285"/>
+      <c r="D285"/>
+    </row>
+    <row r="286" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A286"/>
+      <c r="C286"/>
+      <c r="D286"/>
+    </row>
+    <row r="287" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A287"/>
+      <c r="C287"/>
+      <c r="D287"/>
+    </row>
+    <row r="288" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A288"/>
+      <c r="C288"/>
+      <c r="D288"/>
+    </row>
+    <row r="289" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A289"/>
+      <c r="C289"/>
+      <c r="D289"/>
+    </row>
+    <row r="290" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A290"/>
+      <c r="C290"/>
+      <c r="D290"/>
+    </row>
+    <row r="291" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A291"/>
+      <c r="C291"/>
+      <c r="D291"/>
+    </row>
+    <row r="292" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A292"/>
+      <c r="C292"/>
+      <c r="D292"/>
+    </row>
+    <row r="293" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A293"/>
+      <c r="C293"/>
+      <c r="D293"/>
+    </row>
+    <row r="294" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A294"/>
+      <c r="C294"/>
+      <c r="D294"/>
+    </row>
+    <row r="295" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A295"/>
+      <c r="C295"/>
+      <c r="D295"/>
+    </row>
+    <row r="296" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A296"/>
+      <c r="C296"/>
+      <c r="D296"/>
+    </row>
+    <row r="297" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A297"/>
+      <c r="C297"/>
+      <c r="D297"/>
+    </row>
+    <row r="298" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A298"/>
+      <c r="C298"/>
+      <c r="D298"/>
+    </row>
+    <row r="299" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A299"/>
+      <c r="C299"/>
+      <c r="D299"/>
+    </row>
+    <row r="300" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A300"/>
+      <c r="C300"/>
+      <c r="D300"/>
+    </row>
+    <row r="301" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A301"/>
+      <c r="C301"/>
+      <c r="D301"/>
+    </row>
+    <row r="302" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A302"/>
+      <c r="C302"/>
+      <c r="D302"/>
+    </row>
+    <row r="303" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A303"/>
+      <c r="C303"/>
+      <c r="D303"/>
+    </row>
+    <row r="304" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A304"/>
+      <c r="C304"/>
+      <c r="D304"/>
+    </row>
+    <row r="305" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A305"/>
+      <c r="C305"/>
+      <c r="D305"/>
+    </row>
+    <row r="306" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A306"/>
+      <c r="C306"/>
+      <c r="D306"/>
+    </row>
+    <row r="307" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A307"/>
+      <c r="C307"/>
+      <c r="D307"/>
+    </row>
+    <row r="308" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A308"/>
+      <c r="C308"/>
+      <c r="D308"/>
+    </row>
+    <row r="309" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A309"/>
+      <c r="C309"/>
+      <c r="D309"/>
+    </row>
+    <row r="310" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A310"/>
+      <c r="C310"/>
+      <c r="D310"/>
+    </row>
+    <row r="311" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A311"/>
+      <c r="C311"/>
+      <c r="D311"/>
+    </row>
+    <row r="312" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A312"/>
+      <c r="C312"/>
+      <c r="D312"/>
+    </row>
+    <row r="313" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A313"/>
+      <c r="C313"/>
+      <c r="D313"/>
+    </row>
+    <row r="314" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A314"/>
+      <c r="C314"/>
+      <c r="D314"/>
+    </row>
+    <row r="315" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315"/>
+      <c r="C315"/>
+      <c r="D315"/>
+    </row>
+    <row r="316" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A316"/>
+      <c r="C316"/>
+      <c r="D316"/>
+    </row>
+    <row r="317" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A317"/>
+      <c r="C317"/>
+      <c r="D317"/>
+    </row>
+    <row r="318" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A318"/>
+      <c r="C318"/>
+      <c r="D318"/>
+    </row>
+    <row r="319" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A319"/>
+      <c r="C319"/>
+      <c r="D319"/>
+    </row>
+    <row r="320" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A320"/>
+      <c r="C320"/>
+      <c r="D320"/>
+    </row>
+    <row r="321" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A321"/>
+      <c r="C321"/>
+      <c r="D321"/>
+    </row>
+    <row r="322" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A322"/>
+      <c r="C322"/>
+      <c r="D322"/>
+    </row>
+    <row r="323" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A323"/>
+      <c r="C323"/>
+      <c r="D323"/>
+    </row>
+    <row r="324" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A324"/>
+      <c r="C324"/>
+      <c r="D324"/>
+    </row>
+    <row r="325" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A325"/>
+      <c r="C325"/>
+      <c r="D325"/>
+    </row>
+    <row r="326" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A326"/>
+      <c r="C326"/>
+      <c r="D326"/>
+    </row>
+    <row r="327" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A327"/>
+      <c r="C327"/>
+      <c r="D327"/>
+    </row>
+    <row r="328" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A328"/>
+      <c r="C328"/>
+      <c r="D328"/>
+    </row>
+    <row r="329" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A329"/>
+      <c r="C329"/>
+      <c r="D329"/>
+    </row>
+    <row r="330" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A330"/>
+      <c r="C330"/>
+      <c r="D330"/>
+    </row>
+    <row r="331" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331"/>
+      <c r="C331"/>
+      <c r="D331"/>
+    </row>
+    <row r="332" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A332"/>
+      <c r="C332"/>
+      <c r="D332"/>
+    </row>
+    <row r="333" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A333"/>
+      <c r="C333"/>
+      <c r="D333"/>
+    </row>
+    <row r="334" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A334"/>
+      <c r="C334"/>
+      <c r="D334"/>
+    </row>
+    <row r="335" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A335"/>
+      <c r="C335"/>
+      <c r="D335"/>
+    </row>
+    <row r="336" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A336"/>
+      <c r="C336"/>
+      <c r="D336"/>
+    </row>
+    <row r="337" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A337"/>
+      <c r="C337"/>
+      <c r="D337"/>
+    </row>
+    <row r="338" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A338"/>
+      <c r="C338"/>
+      <c r="D338"/>
+    </row>
+    <row r="339" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A339"/>
+      <c r="C339"/>
+      <c r="D339"/>
+    </row>
+    <row r="340" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A340"/>
+      <c r="C340"/>
+      <c r="D340"/>
+    </row>
+    <row r="341" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A341"/>
+      <c r="C341"/>
+      <c r="D341"/>
+    </row>
+    <row r="342" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A342"/>
+      <c r="C342"/>
+      <c r="D342"/>
+    </row>
+    <row r="343" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A343"/>
+      <c r="C343"/>
+      <c r="D343"/>
+    </row>
+    <row r="344" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A344"/>
+      <c r="C344"/>
+      <c r="D344"/>
+    </row>
+    <row r="345" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A345"/>
+      <c r="C345"/>
+      <c r="D345"/>
+    </row>
+    <row r="346" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A346"/>
+      <c r="C346"/>
+      <c r="D346"/>
+    </row>
+    <row r="347" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A347"/>
+      <c r="C347"/>
+      <c r="D347"/>
+    </row>
+    <row r="348" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A348"/>
+      <c r="C348"/>
+      <c r="D348"/>
+    </row>
+    <row r="349" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A349"/>
+      <c r="C349"/>
+      <c r="D349"/>
+    </row>
+    <row r="350" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A350"/>
+      <c r="C350"/>
+      <c r="D350"/>
+    </row>
+    <row r="351" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A351"/>
+      <c r="C351"/>
+      <c r="D351"/>
+    </row>
+    <row r="352" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A352"/>
+      <c r="C352"/>
+      <c r="D352"/>
+    </row>
+    <row r="353" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A353"/>
+      <c r="C353"/>
+      <c r="D353"/>
+    </row>
+    <row r="354" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A354"/>
+      <c r="C354"/>
+      <c r="D354"/>
+    </row>
+    <row r="355" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A355"/>
+      <c r="C355"/>
+      <c r="D355"/>
+    </row>
+    <row r="356" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A356"/>
+      <c r="C356"/>
+      <c r="D356"/>
+    </row>
+    <row r="357" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A357"/>
+      <c r="C357"/>
+      <c r="D357"/>
+    </row>
+    <row r="358" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A358"/>
+      <c r="C358"/>
+      <c r="D358"/>
+    </row>
+    <row r="359" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A359"/>
+      <c r="C359"/>
+      <c r="D359"/>
+    </row>
+    <row r="360" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A360"/>
+      <c r="C360"/>
+      <c r="D360"/>
+    </row>
+    <row r="361" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A361"/>
+      <c r="C361"/>
+      <c r="D361"/>
+    </row>
+    <row r="362" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A362"/>
+      <c r="C362"/>
+      <c r="D362"/>
+    </row>
+    <row r="363" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A363"/>
+      <c r="C363"/>
+      <c r="D363"/>
+    </row>
+    <row r="364" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A364"/>
+      <c r="C364"/>
+      <c r="D364"/>
+    </row>
+    <row r="365" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A365"/>
+      <c r="C365"/>
+      <c r="D365"/>
+    </row>
+    <row r="366" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A366"/>
+      <c r="C366"/>
+      <c r="D366"/>
+    </row>
+    <row r="367" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A367"/>
+      <c r="C367"/>
+      <c r="D367"/>
+    </row>
+    <row r="368" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A368"/>
+      <c r="C368"/>
+      <c r="D368"/>
+    </row>
+    <row r="369" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A369"/>
+      <c r="C369"/>
+      <c r="D369"/>
+    </row>
+    <row r="370" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A370"/>
+      <c r="C370"/>
+      <c r="D370"/>
+    </row>
+    <row r="371" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A371"/>
+      <c r="C371"/>
+      <c r="D371"/>
+    </row>
+    <row r="372" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A372"/>
+      <c r="C372"/>
+      <c r="D372"/>
+    </row>
+    <row r="373" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A373"/>
+      <c r="C373"/>
+      <c r="D373"/>
+    </row>
+    <row r="374" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A374"/>
+      <c r="C374"/>
+      <c r="D374"/>
+    </row>
+    <row r="375" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A375"/>
+      <c r="C375"/>
+      <c r="D375"/>
+    </row>
+    <row r="376" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A376"/>
+      <c r="C376"/>
+      <c r="D376"/>
+    </row>
+    <row r="377" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A377"/>
+      <c r="C377"/>
+      <c r="D377"/>
+    </row>
+    <row r="378" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A378"/>
+      <c r="C378"/>
+      <c r="D378"/>
+    </row>
+    <row r="379" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A379"/>
+      <c r="C379"/>
+      <c r="D379"/>
+    </row>
+    <row r="380" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A380"/>
+      <c r="C380"/>
+      <c r="D380"/>
+    </row>
+    <row r="381" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A381"/>
+      <c r="C381"/>
+      <c r="D381"/>
+    </row>
+    <row r="382" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A382"/>
+      <c r="C382"/>
+      <c r="D382"/>
+    </row>
+    <row r="383" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A383"/>
+      <c r="C383"/>
+      <c r="D383"/>
+    </row>
+    <row r="384" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A384"/>
+      <c r="C384"/>
+      <c r="D384"/>
+    </row>
+    <row r="385" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A385"/>
+      <c r="C385"/>
+      <c r="D385"/>
+    </row>
+    <row r="386" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A386"/>
+      <c r="C386"/>
+      <c r="D386"/>
+    </row>
+    <row r="387" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A387"/>
+      <c r="C387"/>
+      <c r="D387"/>
+    </row>
+    <row r="388" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A388"/>
+      <c r="C388"/>
+      <c r="D388"/>
+    </row>
+    <row r="389" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A389"/>
+      <c r="C389"/>
+      <c r="D389"/>
+    </row>
+    <row r="390" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A390"/>
+      <c r="C390"/>
+      <c r="D390"/>
+    </row>
+    <row r="391" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A391"/>
+      <c r="C391"/>
+      <c r="D391"/>
+    </row>
+    <row r="392" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A392"/>
+      <c r="C392"/>
+      <c r="D392"/>
+    </row>
+    <row r="393" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A393"/>
+      <c r="C393"/>
+      <c r="D393"/>
+    </row>
+    <row r="394" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A394"/>
+      <c r="C394"/>
+      <c r="D394"/>
+    </row>
+    <row r="395" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A395"/>
+      <c r="C395"/>
+      <c r="D395"/>
+    </row>
+    <row r="396" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A396"/>
+      <c r="C396"/>
+      <c r="D396"/>
+    </row>
+    <row r="397" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A397"/>
+      <c r="C397"/>
+      <c r="D397"/>
+    </row>
+    <row r="398" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A398"/>
+      <c r="C398"/>
+      <c r="D398"/>
+    </row>
+    <row r="399" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A399"/>
+      <c r="C399"/>
+      <c r="D399"/>
+    </row>
+    <row r="400" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A400"/>
+      <c r="C400"/>
+      <c r="D400"/>
+    </row>
+    <row r="401" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A401"/>
+      <c r="C401"/>
+      <c r="D401"/>
+    </row>
+    <row r="402" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A402"/>
+      <c r="C402"/>
+      <c r="D402"/>
+    </row>
+    <row r="403" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A403"/>
+      <c r="C403"/>
+      <c r="D403"/>
+    </row>
+    <row r="404" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A404"/>
+      <c r="C404"/>
+      <c r="D404"/>
+    </row>
+    <row r="405" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A405"/>
+      <c r="C405"/>
+      <c r="D405"/>
+    </row>
+    <row r="406" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A406"/>
+      <c r="C406"/>
+      <c r="D406"/>
+    </row>
+    <row r="407" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A407"/>
+      <c r="C407"/>
+      <c r="D407"/>
+    </row>
+    <row r="408" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A408"/>
+      <c r="C408"/>
+      <c r="D408"/>
+    </row>
+    <row r="409" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A409"/>
+      <c r="C409"/>
+      <c r="D409"/>
+    </row>
+    <row r="410" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A410"/>
+      <c r="C410"/>
+      <c r="D410"/>
+    </row>
+    <row r="411" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A411"/>
+      <c r="C411"/>
+      <c r="D411"/>
+    </row>
+    <row r="412" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A412"/>
+      <c r="C412"/>
+      <c r="D412"/>
+    </row>
+    <row r="413" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A413"/>
+      <c r="C413"/>
+      <c r="D413"/>
+    </row>
+    <row r="414" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A414"/>
+      <c r="C414"/>
+      <c r="D414"/>
+    </row>
+    <row r="415" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A415"/>
+      <c r="C415"/>
+      <c r="D415"/>
+    </row>
+    <row r="416" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A416"/>
+      <c r="C416"/>
+      <c r="D416"/>
+    </row>
+    <row r="417" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A417"/>
+      <c r="C417"/>
+      <c r="D417"/>
+    </row>
+    <row r="418" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A418"/>
+      <c r="C418"/>
+      <c r="D418"/>
+    </row>
+    <row r="419" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A419"/>
+      <c r="C419"/>
+      <c r="D419"/>
+    </row>
+    <row r="420" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A420"/>
+      <c r="C420"/>
+      <c r="D420"/>
+    </row>
+    <row r="421" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A421"/>
+      <c r="C421"/>
+      <c r="D421"/>
+    </row>
+    <row r="422" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A422"/>
+      <c r="C422"/>
+      <c r="D422"/>
+    </row>
+    <row r="423" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A423"/>
+      <c r="C423"/>
+      <c r="D423"/>
+    </row>
+    <row r="424" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A424"/>
+      <c r="C424"/>
+      <c r="D424"/>
+    </row>
+    <row r="425" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A425"/>
+      <c r="C425"/>
+      <c r="D425"/>
+    </row>
+    <row r="426" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A426"/>
+      <c r="C426"/>
+      <c r="D426"/>
+    </row>
+    <row r="427" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A427"/>
+      <c r="C427"/>
+      <c r="D427"/>
+    </row>
+    <row r="428" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A428"/>
+      <c r="C428"/>
+      <c r="D428"/>
+    </row>
+    <row r="429" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A429"/>
+      <c r="C429"/>
+      <c r="D429"/>
+    </row>
+    <row r="430" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A430"/>
+      <c r="C430"/>
+      <c r="D430"/>
+    </row>
+    <row r="431" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A431"/>
+      <c r="C431"/>
+      <c r="D431"/>
+    </row>
+    <row r="432" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A432"/>
+      <c r="C432"/>
+      <c r="D432"/>
+    </row>
+    <row r="433" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A433"/>
+      <c r="C433"/>
+      <c r="D433"/>
+    </row>
+    <row r="434" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A434"/>
+      <c r="C434"/>
+      <c r="D434"/>
+    </row>
+    <row r="435" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A435"/>
+      <c r="C435"/>
+      <c r="D435"/>
+    </row>
+    <row r="436" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A436"/>
+      <c r="C436"/>
+      <c r="D436"/>
+    </row>
+    <row r="437" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A437"/>
+      <c r="C437"/>
+      <c r="D437"/>
+    </row>
+    <row r="438" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A438"/>
+      <c r="C438"/>
+      <c r="D438"/>
+    </row>
+    <row r="439" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A439"/>
+      <c r="C439"/>
+      <c r="D439"/>
+    </row>
+    <row r="440" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A440"/>
+      <c r="C440"/>
+      <c r="D440"/>
+    </row>
+    <row r="441" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A441"/>
+      <c r="C441"/>
+      <c r="D441"/>
+    </row>
+    <row r="442" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A442"/>
+      <c r="C442"/>
+      <c r="D442"/>
+    </row>
+    <row r="443" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A443"/>
+      <c r="C443"/>
+      <c r="D443"/>
+    </row>
+    <row r="444" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A444"/>
+      <c r="C444"/>
+      <c r="D444"/>
+    </row>
+    <row r="445" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A445"/>
+      <c r="C445"/>
+      <c r="D445"/>
+    </row>
+    <row r="446" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A446"/>
+      <c r="C446"/>
+      <c r="D446"/>
+    </row>
+    <row r="447" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A447"/>
+      <c r="C447"/>
+      <c r="D447"/>
+    </row>
+    <row r="448" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A448"/>
+      <c r="C448"/>
+      <c r="D448"/>
+    </row>
+    <row r="449" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A449"/>
+      <c r="C449"/>
+      <c r="D449"/>
+    </row>
+    <row r="450" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A450"/>
+      <c r="C450"/>
+      <c r="D450"/>
+    </row>
+    <row r="451" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A451"/>
+      <c r="C451"/>
+      <c r="D451"/>
+    </row>
+    <row r="452" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A452"/>
+      <c r="C452"/>
+      <c r="D452"/>
+    </row>
+    <row r="453" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A453"/>
+      <c r="C453"/>
+      <c r="D453"/>
+    </row>
+    <row r="454" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A454"/>
+      <c r="C454"/>
+      <c r="D454"/>
+    </row>
+    <row r="455" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A455"/>
+      <c r="C455"/>
+      <c r="D455"/>
+    </row>
+    <row r="456" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A456"/>
+      <c r="C456"/>
+      <c r="D456"/>
+    </row>
+    <row r="457" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A457"/>
+      <c r="C457"/>
+      <c r="D457"/>
+    </row>
+    <row r="458" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A458"/>
+      <c r="C458"/>
+      <c r="D458"/>
+    </row>
+    <row r="459" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A459"/>
+      <c r="C459"/>
+      <c r="D459"/>
+    </row>
+    <row r="460" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A460"/>
+      <c r="C460"/>
+      <c r="D460"/>
+    </row>
+    <row r="461" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A461"/>
+      <c r="C461"/>
+      <c r="D461"/>
+    </row>
+    <row r="462" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A462"/>
+      <c r="C462"/>
+      <c r="D462"/>
+    </row>
+    <row r="463" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A463"/>
+      <c r="C463"/>
+      <c r="D463"/>
+    </row>
+    <row r="464" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A464"/>
+      <c r="C464"/>
+      <c r="D464"/>
+    </row>
+    <row r="465" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A465"/>
+      <c r="C465"/>
+      <c r="D465"/>
+    </row>
+    <row r="466" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A466"/>
+      <c r="C466"/>
+      <c r="D466"/>
+    </row>
+    <row r="467" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A467"/>
+      <c r="C467"/>
+      <c r="D467"/>
+    </row>
+    <row r="468" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A468"/>
+      <c r="C468"/>
+      <c r="D468"/>
+    </row>
+    <row r="469" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A469"/>
+      <c r="C469"/>
+      <c r="D469"/>
+    </row>
+    <row r="470" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A470"/>
+      <c r="C470"/>
+      <c r="D470"/>
+    </row>
+    <row r="471" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A471"/>
+      <c r="C471"/>
+      <c r="D471"/>
+    </row>
+    <row r="472" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A472"/>
+      <c r="C472"/>
+      <c r="D472"/>
+    </row>
+    <row r="473" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A473"/>
+      <c r="C473"/>
+      <c r="D473"/>
+    </row>
+    <row r="474" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A474"/>
+      <c r="C474"/>
+      <c r="D474"/>
+    </row>
+    <row r="475" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A475"/>
+      <c r="C475"/>
+      <c r="D475"/>
+    </row>
+    <row r="476" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A476"/>
+      <c r="C476"/>
+      <c r="D476"/>
+    </row>
+    <row r="477" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A477"/>
+      <c r="C477"/>
+      <c r="D477"/>
+    </row>
+    <row r="478" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A478"/>
+      <c r="C478"/>
+      <c r="D478"/>
+    </row>
+    <row r="479" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A479"/>
+      <c r="C479"/>
+      <c r="D479"/>
+    </row>
+    <row r="480" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A480"/>
+      <c r="C480"/>
+      <c r="D480"/>
+    </row>
+    <row r="481" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A481"/>
+      <c r="C481"/>
+      <c r="D481"/>
+    </row>
+    <row r="482" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A482"/>
+      <c r="C482"/>
+      <c r="D482"/>
+    </row>
+    <row r="483" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A483"/>
+      <c r="C483"/>
+      <c r="D483"/>
+    </row>
+    <row r="484" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A484"/>
+      <c r="C484"/>
+      <c r="D484"/>
+    </row>
+    <row r="485" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A485"/>
+      <c r="C485"/>
+      <c r="D485"/>
+    </row>
+    <row r="486" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A486"/>
+      <c r="C486"/>
+      <c r="D486"/>
+    </row>
+    <row r="487" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A487"/>
+      <c r="C487"/>
+      <c r="D487"/>
+    </row>
+    <row r="488" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A488"/>
+      <c r="C488"/>
+      <c r="D488"/>
+    </row>
+    <row r="489" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A489"/>
+      <c r="C489"/>
+      <c r="D489"/>
+    </row>
+    <row r="490" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A490"/>
+      <c r="C490"/>
+      <c r="D490"/>
+    </row>
+    <row r="491" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A491"/>
+      <c r="C491"/>
+      <c r="D491"/>
+    </row>
+    <row r="492" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A492"/>
+      <c r="C492"/>
+      <c r="D492"/>
+    </row>
+    <row r="493" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A493"/>
+      <c r="C493"/>
+      <c r="D493"/>
+    </row>
+    <row r="494" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A494"/>
+      <c r="C494"/>
+      <c r="D494"/>
+    </row>
+    <row r="495" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A495"/>
+      <c r="C495"/>
+      <c r="D495"/>
+    </row>
+    <row r="496" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A496"/>
+      <c r="C496"/>
+      <c r="D496"/>
+    </row>
+    <row r="497" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A497"/>
+      <c r="C497"/>
+      <c r="D497"/>
+    </row>
+    <row r="498" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A498"/>
+      <c r="C498"/>
+      <c r="D498"/>
+    </row>
+    <row r="499" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A499"/>
+      <c r="C499"/>
+      <c r="D499"/>
+    </row>
+    <row r="500" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A500"/>
+      <c r="C500"/>
+      <c r="D500"/>
+    </row>
+    <row r="501" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A501"/>
+      <c r="C501"/>
+      <c r="D501"/>
+    </row>
+    <row r="502" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A502"/>
+      <c r="C502"/>
+      <c r="D502"/>
+    </row>
+    <row r="503" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A503"/>
+      <c r="C503"/>
+      <c r="D503"/>
+    </row>
+    <row r="504" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A504"/>
+      <c r="C504"/>
+      <c r="D504"/>
+    </row>
+    <row r="505" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A505"/>
+      <c r="C505"/>
+      <c r="D505"/>
+    </row>
+    <row r="506" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A506"/>
+      <c r="C506"/>
+      <c r="D506"/>
+    </row>
+    <row r="507" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A507"/>
+      <c r="C507"/>
+      <c r="D507"/>
+    </row>
+    <row r="508" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A508"/>
+      <c r="C508"/>
+      <c r="D508"/>
+    </row>
+    <row r="509" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A509"/>
+      <c r="C509"/>
+      <c r="D509"/>
+    </row>
+    <row r="510" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A510"/>
+      <c r="C510"/>
+      <c r="D510"/>
+    </row>
+    <row r="511" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A511"/>
+      <c r="C511"/>
+      <c r="D511"/>
+    </row>
+    <row r="512" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A512"/>
+      <c r="C512"/>
+      <c r="D512"/>
+    </row>
+    <row r="513" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A513"/>
+      <c r="C513"/>
+      <c r="D513"/>
+    </row>
+    <row r="514" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A514"/>
+      <c r="C514"/>
+      <c r="D514"/>
+    </row>
+    <row r="515" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A515"/>
+      <c r="C515"/>
+      <c r="D515"/>
+    </row>
+    <row r="516" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A516"/>
+      <c r="C516"/>
+      <c r="D516"/>
+    </row>
+    <row r="517" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A517"/>
+      <c r="C517"/>
+      <c r="D517"/>
+    </row>
+    <row r="518" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A518"/>
+      <c r="C518"/>
+      <c r="D518"/>
+    </row>
+    <row r="519" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A519"/>
+      <c r="C519"/>
+      <c r="D519"/>
+    </row>
+    <row r="520" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A520"/>
+      <c r="C520"/>
+      <c r="D520"/>
+    </row>
+    <row r="521" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A521"/>
+      <c r="C521"/>
+      <c r="D521"/>
+    </row>
+    <row r="522" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A522"/>
+      <c r="C522"/>
+      <c r="D522"/>
+    </row>
+    <row r="523" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A523"/>
+      <c r="C523"/>
+      <c r="D523"/>
+    </row>
+    <row r="524" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A524"/>
+      <c r="C524"/>
+      <c r="D524"/>
+    </row>
+    <row r="525" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A525"/>
+      <c r="C525"/>
+      <c r="D525"/>
+    </row>
+    <row r="526" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A526"/>
+      <c r="C526"/>
+      <c r="D526"/>
+    </row>
+    <row r="527" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A527"/>
+      <c r="C527"/>
+      <c r="D527"/>
+    </row>
+    <row r="528" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A528"/>
+      <c r="C528"/>
+      <c r="D528"/>
+    </row>
+    <row r="529" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A529"/>
+      <c r="C529"/>
+      <c r="D529"/>
+    </row>
+    <row r="530" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A530"/>
+      <c r="C530"/>
+      <c r="D530"/>
+    </row>
+    <row r="531" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A531"/>
+      <c r="C531"/>
+      <c r="D531"/>
+    </row>
+    <row r="532" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A532"/>
+      <c r="C532"/>
+      <c r="D532"/>
+    </row>
+    <row r="533" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A533"/>
+      <c r="C533"/>
+      <c r="D533"/>
+    </row>
+    <row r="534" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A534"/>
+      <c r="C534"/>
+      <c r="D534"/>
+    </row>
+    <row r="535" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A535"/>
+      <c r="C535"/>
+      <c r="D535"/>
+    </row>
+    <row r="536" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A536"/>
+      <c r="C536"/>
+      <c r="D536"/>
+    </row>
+    <row r="537" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A537"/>
+      <c r="C537"/>
+      <c r="D537"/>
+    </row>
+    <row r="538" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A538"/>
+      <c r="C538"/>
+      <c r="D538"/>
+    </row>
+    <row r="539" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A539"/>
+      <c r="C539"/>
+      <c r="D539"/>
+    </row>
+    <row r="540" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A540"/>
+      <c r="C540"/>
+      <c r="D540"/>
+    </row>
+    <row r="541" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A541"/>
+      <c r="C541"/>
+      <c r="D541"/>
+    </row>
+    <row r="542" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A542"/>
+      <c r="C542"/>
+      <c r="D542"/>
+    </row>
+    <row r="543" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A543"/>
+      <c r="C543"/>
+      <c r="D543"/>
+    </row>
+    <row r="544" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A544"/>
+      <c r="C544"/>
+      <c r="D544"/>
+    </row>
+    <row r="545" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A545"/>
+      <c r="C545"/>
+      <c r="D545"/>
+    </row>
+    <row r="546" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A546"/>
+      <c r="C546"/>
+      <c r="D546"/>
+    </row>
+    <row r="547" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A547"/>
+      <c r="C547"/>
+      <c r="D547"/>
+    </row>
+    <row r="548" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A548"/>
+      <c r="C548"/>
+      <c r="D548"/>
+    </row>
+    <row r="549" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A549"/>
+      <c r="C549"/>
+      <c r="D549"/>
+    </row>
+    <row r="550" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A550"/>
+      <c r="C550"/>
+      <c r="D550"/>
+    </row>
+    <row r="551" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A551"/>
+      <c r="C551"/>
+      <c r="D551"/>
+    </row>
+    <row r="552" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A552"/>
+      <c r="C552"/>
+      <c r="D552"/>
+    </row>
+    <row r="553" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A553"/>
+      <c r="C553"/>
+      <c r="D553"/>
+    </row>
+    <row r="554" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A554"/>
+      <c r="C554"/>
+      <c r="D554"/>
+    </row>
+    <row r="555" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A555"/>
+      <c r="C555"/>
+      <c r="D555"/>
+    </row>
+    <row r="556" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A556"/>
+      <c r="C556"/>
+      <c r="D556"/>
+    </row>
+    <row r="557" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A557"/>
+      <c r="C557"/>
+      <c r="D557"/>
+    </row>
+    <row r="558" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A558"/>
+      <c r="C558"/>
+      <c r="D558"/>
+    </row>
+    <row r="559" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A559"/>
+      <c r="C559"/>
+      <c r="D559"/>
+    </row>
+    <row r="560" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A560"/>
+      <c r="C560"/>
+      <c r="D560"/>
+    </row>
+    <row r="561" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A561"/>
+      <c r="C561"/>
+      <c r="D561"/>
+    </row>
+    <row r="562" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A562"/>
+      <c r="C562"/>
+      <c r="D562"/>
+    </row>
+    <row r="563" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A563"/>
+      <c r="C563"/>
+      <c r="D563"/>
+    </row>
+    <row r="564" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A564"/>
+      <c r="C564"/>
+      <c r="D564"/>
+    </row>
+    <row r="565" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A565"/>
+      <c r="C565"/>
+      <c r="D565"/>
+    </row>
+    <row r="566" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A566"/>
+      <c r="C566"/>
+      <c r="D566"/>
+    </row>
+    <row r="567" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A567"/>
+      <c r="C567"/>
+      <c r="D567"/>
+    </row>
+    <row r="568" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A568"/>
+      <c r="C568"/>
+      <c r="D568"/>
+    </row>
+    <row r="569" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A569"/>
+      <c r="C569"/>
+      <c r="D569"/>
+    </row>
+    <row r="570" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A570"/>
+      <c r="C570"/>
+      <c r="D570"/>
+    </row>
+    <row r="571" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A571"/>
+      <c r="C571"/>
+      <c r="D571"/>
+    </row>
+    <row r="572" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A572"/>
+      <c r="C572"/>
+      <c r="D572"/>
+    </row>
+    <row r="573" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A573"/>
+      <c r="C573"/>
+      <c r="D573"/>
+    </row>
+    <row r="574" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A574"/>
+      <c r="C574"/>
+      <c r="D574"/>
+    </row>
+    <row r="575" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A575"/>
+      <c r="C575"/>
+      <c r="D575"/>
+    </row>
+    <row r="576" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A576"/>
+      <c r="C576"/>
+      <c r="D576"/>
+    </row>
+    <row r="577" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A577"/>
+      <c r="C577"/>
+      <c r="D577"/>
+    </row>
+    <row r="578" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A578"/>
+      <c r="C578"/>
+      <c r="D578"/>
+    </row>
+    <row r="579" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A579"/>
+      <c r="C579"/>
+      <c r="D579"/>
+    </row>
+    <row r="580" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A580"/>
+      <c r="C580"/>
+      <c r="D580"/>
+    </row>
+    <row r="581" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A581"/>
+      <c r="C581"/>
+      <c r="D581"/>
+    </row>
+    <row r="582" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A582"/>
+      <c r="C582"/>
+      <c r="D582"/>
+    </row>
+    <row r="583" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A583"/>
+      <c r="C583"/>
+      <c r="D583"/>
+    </row>
+    <row r="584" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A584"/>
+      <c r="C584"/>
+      <c r="D584"/>
+    </row>
+    <row r="585" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A585"/>
+      <c r="C585"/>
+      <c r="D585"/>
+    </row>
+    <row r="586" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A586"/>
+      <c r="C586"/>
+      <c r="D586"/>
+    </row>
+    <row r="587" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A587"/>
+      <c r="C587"/>
+      <c r="D587"/>
+    </row>
+    <row r="588" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A588"/>
+      <c r="C588"/>
+      <c r="D588"/>
+    </row>
+    <row r="589" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A589"/>
+      <c r="C589"/>
+      <c r="D589"/>
+    </row>
+    <row r="590" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A590"/>
+      <c r="C590"/>
+      <c r="D590"/>
+    </row>
+    <row r="591" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A591"/>
+      <c r="C591"/>
+      <c r="D591"/>
+    </row>
+    <row r="592" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A592"/>
+      <c r="C592"/>
+      <c r="D592"/>
+    </row>
+    <row r="593" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A593"/>
+      <c r="C593"/>
+      <c r="D593"/>
+    </row>
+    <row r="594" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A594"/>
+      <c r="C594"/>
+      <c r="D594"/>
+    </row>
+    <row r="595" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A595"/>
+      <c r="C595"/>
+      <c r="D595"/>
+    </row>
+    <row r="596" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A596"/>
+      <c r="C596"/>
+      <c r="D596"/>
+    </row>
+    <row r="597" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A597"/>
+      <c r="C597"/>
+      <c r="D597"/>
+    </row>
+    <row r="598" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A598"/>
+      <c r="C598"/>
+      <c r="D598"/>
+    </row>
+    <row r="599" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A599"/>
+      <c r="C599"/>
+      <c r="D599"/>
+    </row>
+    <row r="600" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A600"/>
+      <c r="C600"/>
+      <c r="D600"/>
+    </row>
+    <row r="601" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A601"/>
+      <c r="C601"/>
+      <c r="D601"/>
+    </row>
+    <row r="602" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A602"/>
+      <c r="C602"/>
+      <c r="D602"/>
+    </row>
+    <row r="603" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A603"/>
+      <c r="C603"/>
+      <c r="D603"/>
+    </row>
+    <row r="604" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A604"/>
+      <c r="C604"/>
+      <c r="D604"/>
+    </row>
+    <row r="605" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A605"/>
+      <c r="C605"/>
+      <c r="D605"/>
+    </row>
+    <row r="606" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A606"/>
+      <c r="C606"/>
+      <c r="D606"/>
+    </row>
+    <row r="607" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A607"/>
+      <c r="C607"/>
+      <c r="D607"/>
+    </row>
+    <row r="608" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A608"/>
+      <c r="C608"/>
+      <c r="D608"/>
+    </row>
+    <row r="609" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A609"/>
+      <c r="C609"/>
+      <c r="D609"/>
+    </row>
+    <row r="610" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A610"/>
+      <c r="C610"/>
+      <c r="D610"/>
+    </row>
+    <row r="611" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A611"/>
+      <c r="C611"/>
+      <c r="D611"/>
+    </row>
+    <row r="612" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A612"/>
+      <c r="C612"/>
+      <c r="D612"/>
+    </row>
+    <row r="613" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A613"/>
+      <c r="C613"/>
+      <c r="D613"/>
+    </row>
+    <row r="614" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A614"/>
+      <c r="C614"/>
+      <c r="D614"/>
+    </row>
+    <row r="615" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A615"/>
+      <c r="C615"/>
+      <c r="D615"/>
+    </row>
+    <row r="616" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A616"/>
+      <c r="C616"/>
+      <c r="D616"/>
+    </row>
+    <row r="617" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A617"/>
+      <c r="C617"/>
+      <c r="D617"/>
+    </row>
+    <row r="618" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A618"/>
+      <c r="C618"/>
+      <c r="D618"/>
+    </row>
+    <row r="619" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A619"/>
+      <c r="C619"/>
+      <c r="D619"/>
+    </row>
+    <row r="620" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A620"/>
+      <c r="C620"/>
+      <c r="D620"/>
+    </row>
+    <row r="621" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A621"/>
+      <c r="C621"/>
+      <c r="D621"/>
+    </row>
+    <row r="622" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A622"/>
+      <c r="C622"/>
+      <c r="D622"/>
+    </row>
+    <row r="623" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A623"/>
+      <c r="C623"/>
+      <c r="D623"/>
+    </row>
+    <row r="624" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A624"/>
+      <c r="C624"/>
+      <c r="D624"/>
+    </row>
+    <row r="625" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A625"/>
+      <c r="C625"/>
+      <c r="D625"/>
+    </row>
+    <row r="626" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A626"/>
+      <c r="C626"/>
+      <c r="D626"/>
+    </row>
+    <row r="627" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A627"/>
+      <c r="C627"/>
+      <c r="D627"/>
+    </row>
+    <row r="628" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A628"/>
+      <c r="C628"/>
+      <c r="D628"/>
+    </row>
+    <row r="629" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A629"/>
+      <c r="C629"/>
+      <c r="D629"/>
+    </row>
+    <row r="630" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A630"/>
+      <c r="C630"/>
+      <c r="D630"/>
+    </row>
+    <row r="631" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A631"/>
+      <c r="C631"/>
+      <c r="D631"/>
+    </row>
+    <row r="632" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A632"/>
+      <c r="C632"/>
+      <c r="D632"/>
+    </row>
+    <row r="633" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A633"/>
+      <c r="C633"/>
+      <c r="D633"/>
+    </row>
+    <row r="634" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A634"/>
+      <c r="C634"/>
+      <c r="D634"/>
+    </row>
+    <row r="635" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A635"/>
+      <c r="C635"/>
+      <c r="D635"/>
+    </row>
+    <row r="636" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A636"/>
+      <c r="C636"/>
+      <c r="D636"/>
+    </row>
+    <row r="637" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A637"/>
+      <c r="C637"/>
+      <c r="D637"/>
+    </row>
+    <row r="638" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A638"/>
+      <c r="C638"/>
+      <c r="D638"/>
+    </row>
+    <row r="639" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A639"/>
+      <c r="C639"/>
+      <c r="D639"/>
+    </row>
+    <row r="640" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A640"/>
+      <c r="C640"/>
+      <c r="D640"/>
+    </row>
+    <row r="641" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A641"/>
+      <c r="C641"/>
+      <c r="D641"/>
+    </row>
+    <row r="642" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A642"/>
+      <c r="C642"/>
+      <c r="D642"/>
+    </row>
+    <row r="643" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A643"/>
+      <c r="C643"/>
+      <c r="D643"/>
+    </row>
+    <row r="644" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A644"/>
+      <c r="C644"/>
+      <c r="D644"/>
+    </row>
+    <row r="645" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A645"/>
+      <c r="C645"/>
+      <c r="D645"/>
+    </row>
+    <row r="646" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A646"/>
+      <c r="C646"/>
+      <c r="D646"/>
+    </row>
+    <row r="647" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A647"/>
+      <c r="C647"/>
+      <c r="D647"/>
+    </row>
+    <row r="648" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A648"/>
+      <c r="C648"/>
+      <c r="D648"/>
+    </row>
+    <row r="649" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A649"/>
+      <c r="C649"/>
+      <c r="D649"/>
+    </row>
+    <row r="650" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A650"/>
+      <c r="C650"/>
+      <c r="D650"/>
+    </row>
+    <row r="651" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A651"/>
+      <c r="C651"/>
+      <c r="D651"/>
+    </row>
+    <row r="652" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A652"/>
+      <c r="C652"/>
+      <c r="D652"/>
+    </row>
+    <row r="653" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A653"/>
+      <c r="C653"/>
+      <c r="D653"/>
+    </row>
+    <row r="654" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A654"/>
+      <c r="C654"/>
+      <c r="D654"/>
+    </row>
+    <row r="655" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A655"/>
+      <c r="C655"/>
+      <c r="D655"/>
+    </row>
+    <row r="656" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A656"/>
+      <c r="C656"/>
+      <c r="D656"/>
+    </row>
+    <row r="657" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A657"/>
+      <c r="C657"/>
+      <c r="D657"/>
+    </row>
+    <row r="658" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A658"/>
+      <c r="C658"/>
+      <c r="D658"/>
+    </row>
+    <row r="659" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A659"/>
+      <c r="C659"/>
+      <c r="D659"/>
+    </row>
+    <row r="660" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A660"/>
+      <c r="C660"/>
+      <c r="D660"/>
+    </row>
+    <row r="661" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A661"/>
+      <c r="C661"/>
+      <c r="D661"/>
+    </row>
+    <row r="662" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A662"/>
+      <c r="C662"/>
+      <c r="D662"/>
+    </row>
+    <row r="663" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A663"/>
+      <c r="C663"/>
+      <c r="D663"/>
+    </row>
+    <row r="664" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A664"/>
+      <c r="C664"/>
+      <c r="D664"/>
+    </row>
+    <row r="665" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A665"/>
+      <c r="C665"/>
+      <c r="D665"/>
+    </row>
+    <row r="666" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A666"/>
+      <c r="C666"/>
+      <c r="D666"/>
+    </row>
+    <row r="667" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A667"/>
+      <c r="C667"/>
+      <c r="D667"/>
+    </row>
+    <row r="668" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A668"/>
+      <c r="C668"/>
+      <c r="D668"/>
+    </row>
+    <row r="669" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A669"/>
+      <c r="C669"/>
+      <c r="D669"/>
+    </row>
+    <row r="670" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A670"/>
+      <c r="C670"/>
+      <c r="D670"/>
+    </row>
+    <row r="671" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A671"/>
+      <c r="C671"/>
+      <c r="D671"/>
+    </row>
+    <row r="672" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A672"/>
+      <c r="C672"/>
+      <c r="D672"/>
+    </row>
+    <row r="673" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A673"/>
+      <c r="C673"/>
+      <c r="D673"/>
+    </row>
+    <row r="674" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A674"/>
+      <c r="C674"/>
+      <c r="D674"/>
+    </row>
+    <row r="675" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A675"/>
+      <c r="C675"/>
+      <c r="D675"/>
+    </row>
+    <row r="676" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A676"/>
+      <c r="C676"/>
+      <c r="D676"/>
+    </row>
+    <row r="677" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A677"/>
+      <c r="C677"/>
+      <c r="D677"/>
+    </row>
+    <row r="678" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A678"/>
+      <c r="C678"/>
+      <c r="D678"/>
+    </row>
+    <row r="679" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A679"/>
+      <c r="C679"/>
+      <c r="D679"/>
+    </row>
+    <row r="680" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A680"/>
+      <c r="C680"/>
+      <c r="D680"/>
+    </row>
+    <row r="681" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A681"/>
+      <c r="C681"/>
+      <c r="D681"/>
+    </row>
+    <row r="682" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A682"/>
+      <c r="C682"/>
+      <c r="D682"/>
+    </row>
+    <row r="683" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A683"/>
+      <c r="C683"/>
+      <c r="D683"/>
+    </row>
+    <row r="684" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A684"/>
+      <c r="C684"/>
+      <c r="D684"/>
+    </row>
+    <row r="685" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A685"/>
+      <c r="C685"/>
+      <c r="D685"/>
+    </row>
+    <row r="686" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A686"/>
+      <c r="C686"/>
+      <c r="D686"/>
+    </row>
+    <row r="687" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A687"/>
+      <c r="C687"/>
+      <c r="D687"/>
+    </row>
+    <row r="688" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A688"/>
+      <c r="C688"/>
+      <c r="D688"/>
+    </row>
+    <row r="689" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A689"/>
+      <c r="C689"/>
+      <c r="D689"/>
+    </row>
+    <row r="690" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A690"/>
+      <c r="C690"/>
+      <c r="D690"/>
+    </row>
+    <row r="691" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A691"/>
+      <c r="C691"/>
+      <c r="D691"/>
+    </row>
+    <row r="692" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A692"/>
+      <c r="C692"/>
+      <c r="D692"/>
+    </row>
+    <row r="693" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A693"/>
+      <c r="C693"/>
+      <c r="D693"/>
+    </row>
+    <row r="694" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A694"/>
+      <c r="C694"/>
+      <c r="D694"/>
+    </row>
+    <row r="695" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A695"/>
+      <c r="C695"/>
+      <c r="D695"/>
+    </row>
+    <row r="696" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A696"/>
+      <c r="C696"/>
+      <c r="D696"/>
+    </row>
+    <row r="697" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A697"/>
+      <c r="C697"/>
+      <c r="D697"/>
+    </row>
+    <row r="698" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A698"/>
+      <c r="C698"/>
+      <c r="D698"/>
+    </row>
+    <row r="699" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A699"/>
+      <c r="C699"/>
+      <c r="D699"/>
+    </row>
+    <row r="700" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A700"/>
+      <c r="C700"/>
+      <c r="D700"/>
+    </row>
+    <row r="701" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A701"/>
+      <c r="C701"/>
+      <c r="D701"/>
+    </row>
+    <row r="702" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A702"/>
+      <c r="C702"/>
+      <c r="D702"/>
+    </row>
+    <row r="703" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A703"/>
+      <c r="C703"/>
+      <c r="D703"/>
+    </row>
+    <row r="704" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A704"/>
+      <c r="C704"/>
+      <c r="D704"/>
+    </row>
+    <row r="705" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A705"/>
+      <c r="C705"/>
+      <c r="D705"/>
+    </row>
+    <row r="706" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A706"/>
+      <c r="C706"/>
+      <c r="D706"/>
+    </row>
+    <row r="707" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A707"/>
+      <c r="C707"/>
+      <c r="D707"/>
+    </row>
+    <row r="708" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A708"/>
+      <c r="C708"/>
+      <c r="D708"/>
+    </row>
+    <row r="709" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A709"/>
+      <c r="C709"/>
+      <c r="D709"/>
+    </row>
+    <row r="710" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A710"/>
+      <c r="C710"/>
+      <c r="D710"/>
+    </row>
+    <row r="711" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A711"/>
+      <c r="C711"/>
+      <c r="D711"/>
+    </row>
+    <row r="712" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A712"/>
+      <c r="C712"/>
+      <c r="D712"/>
+    </row>
+    <row r="713" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A713"/>
+      <c r="C713"/>
+      <c r="D713"/>
+    </row>
+    <row r="714" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A714"/>
+      <c r="C714"/>
+      <c r="D714"/>
+    </row>
+    <row r="715" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A715"/>
+      <c r="C715"/>
+      <c r="D715"/>
+    </row>
+    <row r="716" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A716"/>
+      <c r="C716"/>
+      <c r="D716"/>
+    </row>
+    <row r="717" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A717"/>
+      <c r="C717"/>
+      <c r="D717"/>
+    </row>
+    <row r="718" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A718"/>
+      <c r="C718"/>
+      <c r="D718"/>
+    </row>
+    <row r="719" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A719"/>
+      <c r="C719"/>
+      <c r="D719"/>
+    </row>
+    <row r="720" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A720"/>
+      <c r="C720"/>
+      <c r="D720"/>
+    </row>
+    <row r="721" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A721"/>
+      <c r="C721"/>
+      <c r="D721"/>
+    </row>
+    <row r="722" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A722"/>
+      <c r="C722"/>
+      <c r="D722"/>
+    </row>
+    <row r="723" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A723"/>
+      <c r="C723"/>
+      <c r="D723"/>
+    </row>
+    <row r="724" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A724"/>
+      <c r="C724"/>
+      <c r="D724"/>
+    </row>
+    <row r="725" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A725"/>
+      <c r="C725"/>
+      <c r="D725"/>
+    </row>
+    <row r="726" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A726"/>
+      <c r="C726"/>
+      <c r="D726"/>
+    </row>
+    <row r="727" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A727"/>
+      <c r="C727"/>
+      <c r="D727"/>
+    </row>
+    <row r="728" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A728"/>
+      <c r="C728"/>
+      <c r="D728"/>
+    </row>
+    <row r="729" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A729"/>
+      <c r="C729"/>
+      <c r="D729"/>
+    </row>
+    <row r="730" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A730"/>
+      <c r="C730"/>
+      <c r="D730"/>
+    </row>
+    <row r="731" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A731"/>
+      <c r="C731"/>
+      <c r="D731"/>
+    </row>
+    <row r="732" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A732"/>
+      <c r="C732"/>
+      <c r="D732"/>
+    </row>
+    <row r="733" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A733"/>
+      <c r="C733"/>
+      <c r="D733"/>
+    </row>
+    <row r="734" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A734"/>
+      <c r="C734"/>
+      <c r="D734"/>
+    </row>
+    <row r="735" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A735"/>
+      <c r="C735"/>
+      <c r="D735"/>
+    </row>
+    <row r="736" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A736"/>
+      <c r="C736"/>
+      <c r="D736"/>
+    </row>
+    <row r="737" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A737"/>
+      <c r="C737"/>
+      <c r="D737"/>
+    </row>
+    <row r="738" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A738"/>
+      <c r="C738"/>
+      <c r="D738"/>
+    </row>
+    <row r="739" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A739"/>
+      <c r="C739"/>
+      <c r="D739"/>
+    </row>
+    <row r="740" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A740"/>
+      <c r="C740"/>
+      <c r="D740"/>
+    </row>
+    <row r="741" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A741"/>
+      <c r="C741"/>
+      <c r="D741"/>
+    </row>
+    <row r="742" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A742"/>
+      <c r="C742"/>
+      <c r="D742"/>
+    </row>
+    <row r="743" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A743"/>
+      <c r="C743"/>
+      <c r="D743"/>
+    </row>
+    <row r="744" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A744"/>
+      <c r="C744"/>
+      <c r="D744"/>
+    </row>
+    <row r="745" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A745"/>
+      <c r="C745"/>
+      <c r="D745"/>
+    </row>
+    <row r="746" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A746"/>
+      <c r="C746"/>
+      <c r="D746"/>
+    </row>
+    <row r="747" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A747"/>
+      <c r="C747"/>
+      <c r="D747"/>
+    </row>
+    <row r="748" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A748"/>
+      <c r="C748"/>
+      <c r="D748"/>
+    </row>
+    <row r="749" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A749"/>
+      <c r="C749"/>
+      <c r="D749"/>
+    </row>
+    <row r="750" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A750"/>
+      <c r="C750"/>
+      <c r="D750"/>
+    </row>
+    <row r="751" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A751"/>
+      <c r="C751"/>
+      <c r="D751"/>
+    </row>
+    <row r="752" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A752"/>
+      <c r="C752"/>
+      <c r="D752"/>
+    </row>
+    <row r="753" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A753"/>
+      <c r="C753"/>
+      <c r="D753"/>
+    </row>
+    <row r="754" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A754"/>
+      <c r="C754"/>
+      <c r="D754"/>
+    </row>
+    <row r="755" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A755"/>
+      <c r="C755"/>
+      <c r="D755"/>
+    </row>
+    <row r="756" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A756"/>
+      <c r="C756"/>
+      <c r="D756"/>
+    </row>
+    <row r="757" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A757"/>
+      <c r="C757"/>
+      <c r="D757"/>
+    </row>
+    <row r="758" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A758"/>
+      <c r="C758"/>
+      <c r="D758"/>
+    </row>
+    <row r="759" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A759"/>
+      <c r="C759"/>
+      <c r="D759"/>
+    </row>
+    <row r="760" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A760"/>
+      <c r="C760"/>
+      <c r="D760"/>
+    </row>
+    <row r="761" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A761"/>
+      <c r="C761"/>
+      <c r="D761"/>
+    </row>
+    <row r="762" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A762"/>
+      <c r="C762"/>
+      <c r="D762"/>
+    </row>
+    <row r="763" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A763"/>
+      <c r="C763"/>
+      <c r="D763"/>
+    </row>
+    <row r="764" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A764"/>
+      <c r="C764"/>
+      <c r="D764"/>
+    </row>
+    <row r="765" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A765"/>
+      <c r="C765"/>
+      <c r="D765"/>
+    </row>
+    <row r="766" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A766"/>
+      <c r="C766"/>
+      <c r="D766"/>
+    </row>
+    <row r="767" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A767"/>
+      <c r="C767"/>
+      <c r="D767"/>
+    </row>
+    <row r="768" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A768"/>
+      <c r="C768"/>
+      <c r="D768"/>
+    </row>
+    <row r="769" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A769"/>
+      <c r="C769"/>
+      <c r="D769"/>
+    </row>
+    <row r="770" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A770"/>
+      <c r="C770"/>
+      <c r="D770"/>
+    </row>
+    <row r="771" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A771"/>
+      <c r="C771"/>
+      <c r="D771"/>
+    </row>
+    <row r="772" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A772"/>
+      <c r="C772"/>
+      <c r="D772"/>
+    </row>
+    <row r="773" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A773"/>
+      <c r="C773"/>
+      <c r="D773"/>
+    </row>
+    <row r="774" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A774"/>
+      <c r="C774"/>
+      <c r="D774"/>
+    </row>
+    <row r="775" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A775"/>
+      <c r="C775"/>
+      <c r="D775"/>
+    </row>
+    <row r="776" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A776"/>
+      <c r="C776"/>
+      <c r="D776"/>
+    </row>
+    <row r="777" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A777"/>
+      <c r="C777"/>
+      <c r="D777"/>
+    </row>
+    <row r="778" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A778"/>
+      <c r="C778"/>
+      <c r="D778"/>
+    </row>
+    <row r="779" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A779"/>
+      <c r="C779"/>
+      <c r="D779"/>
+    </row>
+    <row r="780" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A780"/>
+      <c r="C780"/>
+      <c r="D780"/>
+    </row>
+    <row r="781" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A781"/>
+      <c r="C781"/>
+      <c r="D781"/>
+    </row>
+    <row r="782" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A782"/>
+      <c r="C782"/>
+      <c r="D782"/>
+    </row>
+    <row r="783" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A783"/>
+      <c r="C783"/>
+      <c r="D783"/>
+    </row>
+    <row r="784" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A784"/>
+      <c r="C784"/>
+      <c r="D784"/>
+    </row>
+    <row r="785" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A785"/>
+      <c r="C785"/>
+      <c r="D785"/>
+    </row>
+    <row r="786" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A786"/>
+      <c r="C786"/>
+      <c r="D786"/>
+    </row>
+    <row r="787" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A787"/>
+      <c r="C787"/>
+      <c r="D787"/>
+    </row>
+    <row r="788" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A788"/>
+      <c r="C788"/>
+      <c r="D788"/>
+    </row>
+    <row r="789" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A789"/>
+      <c r="C789"/>
+      <c r="D789"/>
+    </row>
+    <row r="790" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A790"/>
+      <c r="C790"/>
+      <c r="D790"/>
+    </row>
+    <row r="791" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A791"/>
+      <c r="C791"/>
+      <c r="D791"/>
+    </row>
+    <row r="792" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A792"/>
+      <c r="C792"/>
+      <c r="D792"/>
+    </row>
+    <row r="793" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A793"/>
+      <c r="C793"/>
+      <c r="D793"/>
+    </row>
+    <row r="794" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A794"/>
+      <c r="C794"/>
+      <c r="D794"/>
+    </row>
+    <row r="795" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A795"/>
+      <c r="C795"/>
+      <c r="D795"/>
+    </row>
+    <row r="796" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A796"/>
+      <c r="C796"/>
+      <c r="D796"/>
+    </row>
+    <row r="797" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A797"/>
+      <c r="C797"/>
+      <c r="D797"/>
+    </row>
+    <row r="798" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A798"/>
+      <c r="C798"/>
+      <c r="D798"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="D1" xr:uid="{8DDC970A-5668-448C-BCF7-7DF4100B8742}">
+    <sortState ref="D2:D121">
+      <sortCondition ref="D1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>